--- a/inputs/en/LiST countries/MNG_databook.xlsx
+++ b/inputs/en/LiST countries/MNG_databook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\0BzU7J_ZlwMKeWXBzZEFyaElkX28\Optima Nutrition\Development\LiST Optima bridge\App\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C95F3407-BE29-4CB0-8478-FC8572E3110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07FA704-1FC4-46D2-9D3A-3D9ACC5DE590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -2716,7 +2716,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2829,6 +2829,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2969,7 +2975,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3210,6 +3216,9 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3645,7 +3654,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="43">
-        <v>377945.02734375</v>
+        <v>376515.01953125</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3917,7 +3926,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="45">
-        <v>2.9981000000000001E-2</v>
+        <v>4.8123999999999997E-3</v>
       </c>
       <c r="D45" s="12"/>
     </row>
@@ -3926,7 +3935,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="45">
-        <v>0.1045972</v>
+        <v>5.6891800000000013E-2</v>
       </c>
       <c r="D46" s="12"/>
     </row>
@@ -3935,7 +3944,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="45">
-        <v>7.7711100000000005E-2</v>
+        <v>9.0186700000000009E-2</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="13"/>
@@ -3945,7 +3954,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="46">
-        <v>0.78771069999999999</v>
+        <v>0.84810910000000006</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -4063,8 +4072,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4109,7 +4118,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="45">
-        <v>0.6863683955017279</v>
+        <v>0.529396294657698</v>
       </c>
       <c r="C2" s="98">
         <v>0.95</v>
@@ -4293,7 +4302,7 @@
         <v>175</v>
       </c>
       <c r="B10" s="45">
-        <v>0.21268976883999599</v>
+        <v>0</v>
       </c>
       <c r="C10" s="98">
         <v>0.95</v>
@@ -4316,7 +4325,7 @@
         <v>176</v>
       </c>
       <c r="B11" s="98">
-        <v>0.21268976883999599</v>
+        <v>0</v>
       </c>
       <c r="C11" s="98">
         <v>0.95</v>
@@ -4339,7 +4348,7 @@
         <v>177</v>
       </c>
       <c r="B12" s="98">
-        <v>0.21268976883999599</v>
+        <v>0</v>
       </c>
       <c r="C12" s="98">
         <v>0.95</v>
@@ -4362,7 +4371,7 @@
         <v>178</v>
       </c>
       <c r="B13" s="98">
-        <v>0.21268976883999599</v>
+        <v>0</v>
       </c>
       <c r="C13" s="98">
         <v>0.95</v>
@@ -4385,7 +4394,7 @@
         <v>179</v>
       </c>
       <c r="B14" s="45">
-        <v>0.21268976883999599</v>
+        <v>0</v>
       </c>
       <c r="C14" s="98">
         <v>0.95</v>
@@ -4408,7 +4417,7 @@
         <v>180</v>
       </c>
       <c r="B15" s="98">
-        <v>0.21268976883999599</v>
+        <v>0</v>
       </c>
       <c r="C15" s="98">
         <v>0.95</v>
@@ -4431,7 +4440,7 @@
         <v>181</v>
       </c>
       <c r="B16" s="45">
-        <v>0</v>
+        <v>0.62215034013593407</v>
       </c>
       <c r="C16" s="98">
         <v>0.95</v>
@@ -4477,7 +4486,7 @@
         <v>148</v>
       </c>
       <c r="B18" s="98">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="C18" s="98">
         <v>0.95</v>
@@ -4546,7 +4555,7 @@
         <v>183</v>
       </c>
       <c r="B21" s="45">
-        <v>0.98394409999999999</v>
+        <v>0.50568460000000004</v>
       </c>
       <c r="C21" s="98">
         <v>0.95</v>
@@ -4592,7 +4601,7 @@
         <v>185</v>
       </c>
       <c r="B23" s="98">
-        <v>0</v>
+        <v>8.8149681090000001E-2</v>
       </c>
       <c r="C23" s="98">
         <v>0.95</v>
@@ -4615,7 +4624,7 @@
         <v>186</v>
       </c>
       <c r="B24" s="45">
-        <v>0.2487204056539</v>
+        <v>0.86140611357519803</v>
       </c>
       <c r="C24" s="98">
         <v>0.95</v>
@@ -4684,7 +4693,7 @@
         <v>189</v>
       </c>
       <c r="B27" s="45">
-        <v>0.16588473448723601</v>
+        <v>0.55257206113936497</v>
       </c>
       <c r="C27" s="98">
         <v>0.95</v>
@@ -4707,7 +4716,7 @@
         <v>190</v>
       </c>
       <c r="B28" s="45">
-        <v>0</v>
+        <v>0.58242249999999995</v>
       </c>
       <c r="C28" s="98">
         <v>0.95</v>
@@ -4730,7 +4739,7 @@
         <v>191</v>
       </c>
       <c r="B29" s="45">
-        <v>0.58479392767034499</v>
+        <v>0</v>
       </c>
       <c r="C29" s="98">
         <v>0.95</v>
@@ -4799,7 +4808,7 @@
         <v>193</v>
       </c>
       <c r="B32" s="45">
-        <v>8.8149681090000001E-2</v>
+        <v>0.47777259999999999</v>
       </c>
       <c r="C32" s="98">
         <v>0.95</v>
@@ -4845,7 +4854,7 @@
         <v>195</v>
       </c>
       <c r="B34" s="45">
-        <v>0</v>
+        <v>0.58479392767034499</v>
       </c>
       <c r="C34" s="98">
         <v>0.95</v>
@@ -4891,7 +4900,7 @@
         <v>197</v>
       </c>
       <c r="B36" s="45">
-        <v>0.50568460000000004</v>
+        <v>0</v>
       </c>
       <c r="C36" s="98">
         <v>0.95</v>
@@ -4914,7 +4923,7 @@
         <v>198</v>
       </c>
       <c r="B37" s="45">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="C37" s="98">
         <v>0.95</v>
@@ -4937,7 +4946,7 @@
         <v>199</v>
       </c>
       <c r="B38" s="45">
-        <v>0</v>
+        <v>0.16494010000000001</v>
       </c>
       <c r="C38" s="98">
         <v>0.95</v>
@@ -4960,7 +4969,7 @@
         <v>200</v>
       </c>
       <c r="B39" s="45">
-        <v>0.25129554536469501</v>
+        <v>0.39210790000000001</v>
       </c>
       <c r="C39" s="98">
         <v>0.95</v>
@@ -4979,7 +4988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="flEYGmD1GLidd0ddtHKCKuJ5ksEMYNNySqLwy98A8V7xhGpk4EzF4dsTyjw0ycLJi5g39cx/Wi3ajpRl6DY+0g==" saltValue="mFKxAo/Yw/sKi0fDS5u9aA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7vflRb+A4U2pEdxn7m/v0lFZNI78qfZXbnYBjV1V9XLM+tHWxQCvL8xYVSz8kIygwB6Bp0chVfPhUDXzL0eOkw==" saltValue="BwzbjGZ5GxwK0BvfdhnvSQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -4993,7 +5002,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -11176,7 +11185,7 @@
       <c r="A2" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="103" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -11199,7 +11208,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="103"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="8" t="s">
         <v>146</v>
       </c>
@@ -11221,7 +11230,7 @@
       <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="103"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="8" t="s">
         <v>147</v>
       </c>
@@ -11243,7 +11252,7 @@
       <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -11267,7 +11276,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="103"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="8" t="s">
         <v>146</v>
       </c>
@@ -11288,7 +11297,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="103"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="8" t="s">
         <v>147</v>
       </c>
@@ -11309,7 +11318,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -11332,7 +11341,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="103"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="8" t="s">
         <v>146</v>
       </c>
@@ -11353,7 +11362,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="8" t="s">
         <v>147</v>
       </c>
@@ -11374,7 +11383,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -11397,7 +11406,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="103"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="8" t="s">
         <v>146</v>
       </c>
@@ -11418,7 +11427,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="103"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="8" t="s">
         <v>147</v>
       </c>
@@ -11439,7 +11448,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="103" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -11462,7 +11471,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="103"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="8" t="s">
         <v>146</v>
       </c>
@@ -11483,7 +11492,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="8" t="s">
         <v>147</v>
       </c>
@@ -11537,7 +11546,7 @@
       <c r="A19" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="103" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -11560,7 +11569,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="8" t="s">
         <v>146</v>
       </c>
@@ -11581,7 +11590,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="103"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="8" t="s">
         <v>147</v>
       </c>
@@ -11602,7 +11611,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="103" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -11625,7 +11634,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="103"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="8" t="s">
         <v>146</v>
       </c>
@@ -11646,7 +11655,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="103"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="8" t="s">
         <v>147</v>
       </c>
@@ -11667,7 +11676,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -11690,7 +11699,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="103"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="8" t="s">
         <v>146</v>
       </c>
@@ -11711,7 +11720,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="103"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="8" t="s">
         <v>147</v>
       </c>
@@ -11732,7 +11741,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -11755,7 +11764,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="103"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="8" t="s">
         <v>146</v>
       </c>
@@ -11776,7 +11785,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="103"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="8" t="s">
         <v>147</v>
       </c>
@@ -11797,7 +11806,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="103" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -11820,7 +11829,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="103"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="8" t="s">
         <v>146</v>
       </c>
@@ -11841,7 +11850,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="103"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="8" t="s">
         <v>147</v>
       </c>
@@ -11895,7 +11904,7 @@
       <c r="A36" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="103" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -11918,7 +11927,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="103"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="8" t="s">
         <v>146</v>
       </c>
@@ -11939,7 +11948,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="103"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="8" t="s">
         <v>147</v>
       </c>
@@ -11960,7 +11969,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="103" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -11983,7 +11992,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="103"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="8" t="s">
         <v>146</v>
       </c>
@@ -12004,7 +12013,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="103"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="8" t="s">
         <v>147</v>
       </c>
@@ -12025,7 +12034,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -12048,7 +12057,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="103"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="8" t="s">
         <v>146</v>
       </c>
@@ -12069,7 +12078,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="103"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="8" t="s">
         <v>147</v>
       </c>
@@ -12090,7 +12099,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -12113,7 +12122,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="103"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="8" t="s">
         <v>146</v>
       </c>
@@ -12134,7 +12143,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="103"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="8" t="s">
         <v>147</v>
       </c>
@@ -12155,7 +12164,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="103" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -12178,7 +12187,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="103"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="8" t="s">
         <v>146</v>
       </c>
@@ -12199,7 +12208,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="103"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="8" t="s">
         <v>147</v>
       </c>
@@ -12284,7 +12293,7 @@
       <c r="A55" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="103" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -12312,7 +12321,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="103"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="8" t="s">
         <v>146</v>
       </c>
@@ -12338,7 +12347,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="103"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="8" t="s">
         <v>147</v>
       </c>
@@ -12364,7 +12373,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="103" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -12392,7 +12401,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="103"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="8" t="s">
         <v>146</v>
       </c>
@@ -12418,7 +12427,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="103"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="8" t="s">
         <v>147</v>
       </c>
@@ -12444,7 +12453,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -12472,7 +12481,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="103"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="8" t="s">
         <v>146</v>
       </c>
@@ -12498,7 +12507,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="103"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="8" t="s">
         <v>147</v>
       </c>
@@ -12524,7 +12533,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -12552,7 +12561,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="103"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="8" t="s">
         <v>146</v>
       </c>
@@ -12578,7 +12587,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="103"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="8" t="s">
         <v>147</v>
       </c>
@@ -12604,7 +12613,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="103" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -12632,7 +12641,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="103"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="8" t="s">
         <v>146</v>
       </c>
@@ -12658,7 +12667,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="103"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="8" t="s">
         <v>147</v>
       </c>
@@ -12722,7 +12731,7 @@
       <c r="A72" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="103" t="s">
         <v>90</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -12750,7 +12759,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="103"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="8" t="s">
         <v>146</v>
       </c>
@@ -12776,7 +12785,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="103"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="8" t="s">
         <v>147</v>
       </c>
@@ -12802,7 +12811,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="102" t="s">
+      <c r="B75" s="103" t="s">
         <v>67</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -12830,7 +12839,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="103"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="8" t="s">
         <v>146</v>
       </c>
@@ -12856,7 +12865,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="103"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="8" t="s">
         <v>147</v>
       </c>
@@ -12882,7 +12891,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="102" t="s">
+      <c r="B78" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -12910,7 +12919,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="103"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="8" t="s">
         <v>146</v>
       </c>
@@ -12936,7 +12945,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="103"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="8" t="s">
         <v>147</v>
       </c>
@@ -12962,7 +12971,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="102" t="s">
+      <c r="B81" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -12990,7 +12999,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="103"/>
+      <c r="B82" s="104"/>
       <c r="C82" s="8" t="s">
         <v>146</v>
       </c>
@@ -13016,7 +13025,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="103"/>
+      <c r="B83" s="104"/>
       <c r="C83" s="8" t="s">
         <v>147</v>
       </c>
@@ -13042,7 +13051,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="102" t="s">
+      <c r="B84" s="103" t="s">
         <v>79</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -13070,7 +13079,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="103"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="8" t="s">
         <v>146</v>
       </c>
@@ -13096,7 +13105,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="103"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="8" t="s">
         <v>147</v>
       </c>
@@ -13160,7 +13169,7 @@
       <c r="A89" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="102" t="s">
+      <c r="B89" s="103" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -13188,7 +13197,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="103"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="8" t="s">
         <v>146</v>
       </c>
@@ -13214,7 +13223,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="103"/>
+      <c r="B91" s="104"/>
       <c r="C91" s="8" t="s">
         <v>147</v>
       </c>
@@ -13240,7 +13249,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="102" t="s">
+      <c r="B92" s="103" t="s">
         <v>67</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -13268,7 +13277,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="103"/>
+      <c r="B93" s="104"/>
       <c r="C93" s="8" t="s">
         <v>146</v>
       </c>
@@ -13294,7 +13303,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="103"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="8" t="s">
         <v>147</v>
       </c>
@@ -13320,7 +13329,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="102" t="s">
+      <c r="B95" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -13348,7 +13357,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="103"/>
+      <c r="B96" s="104"/>
       <c r="C96" s="8" t="s">
         <v>146</v>
       </c>
@@ -13374,7 +13383,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="103"/>
+      <c r="B97" s="104"/>
       <c r="C97" s="8" t="s">
         <v>147</v>
       </c>
@@ -13400,7 +13409,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="102" t="s">
+      <c r="B98" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -13428,7 +13437,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="103"/>
+      <c r="B99" s="104"/>
       <c r="C99" s="8" t="s">
         <v>146</v>
       </c>
@@ -13454,7 +13463,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="103"/>
+      <c r="B100" s="104"/>
       <c r="C100" s="8" t="s">
         <v>147</v>
       </c>
@@ -13480,7 +13489,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="102" t="s">
+      <c r="B101" s="103" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="8" t="s">
@@ -13508,7 +13517,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="103"/>
+      <c r="B102" s="104"/>
       <c r="C102" s="8" t="s">
         <v>146</v>
       </c>
@@ -13534,7 +13543,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="103"/>
+      <c r="B103" s="104"/>
       <c r="C103" s="8" t="s">
         <v>147</v>
       </c>
@@ -13629,7 +13638,7 @@
       <c r="A108" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="102" t="s">
+      <c r="B108" s="103" t="s">
         <v>90</v>
       </c>
       <c r="C108" s="8" t="s">
@@ -13657,7 +13666,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="103"/>
+      <c r="B109" s="104"/>
       <c r="C109" s="8" t="s">
         <v>146</v>
       </c>
@@ -13683,7 +13692,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="103"/>
+      <c r="B110" s="104"/>
       <c r="C110" s="8" t="s">
         <v>147</v>
       </c>
@@ -13709,7 +13718,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="102" t="s">
+      <c r="B111" s="103" t="s">
         <v>67</v>
       </c>
       <c r="C111" s="8" t="s">
@@ -13737,7 +13746,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="103"/>
+      <c r="B112" s="104"/>
       <c r="C112" s="8" t="s">
         <v>146</v>
       </c>
@@ -13763,7 +13772,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="103"/>
+      <c r="B113" s="104"/>
       <c r="C113" s="8" t="s">
         <v>147</v>
       </c>
@@ -13789,7 +13798,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="102" t="s">
+      <c r="B114" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C114" s="8" t="s">
@@ -13817,7 +13826,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="103"/>
+      <c r="B115" s="104"/>
       <c r="C115" s="8" t="s">
         <v>146</v>
       </c>
@@ -13843,7 +13852,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="103"/>
+      <c r="B116" s="104"/>
       <c r="C116" s="8" t="s">
         <v>147</v>
       </c>
@@ -13869,7 +13878,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="102" t="s">
+      <c r="B117" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -13897,7 +13906,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="103"/>
+      <c r="B118" s="104"/>
       <c r="C118" s="8" t="s">
         <v>146</v>
       </c>
@@ -13923,7 +13932,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="103"/>
+      <c r="B119" s="104"/>
       <c r="C119" s="8" t="s">
         <v>147</v>
       </c>
@@ -13949,7 +13958,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="102" t="s">
+      <c r="B120" s="103" t="s">
         <v>79</v>
       </c>
       <c r="C120" s="8" t="s">
@@ -13977,7 +13986,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="103"/>
+      <c r="B121" s="104"/>
       <c r="C121" s="8" t="s">
         <v>146</v>
       </c>
@@ -14003,7 +14012,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="103"/>
+      <c r="B122" s="104"/>
       <c r="C122" s="8" t="s">
         <v>147</v>
       </c>
@@ -14067,7 +14076,7 @@
       <c r="A125" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="102" t="s">
+      <c r="B125" s="103" t="s">
         <v>90</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -14095,7 +14104,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="103"/>
+      <c r="B126" s="104"/>
       <c r="C126" s="8" t="s">
         <v>146</v>
       </c>
@@ -14121,7 +14130,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="103"/>
+      <c r="B127" s="104"/>
       <c r="C127" s="8" t="s">
         <v>147</v>
       </c>
@@ -14147,7 +14156,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="102" t="s">
+      <c r="B128" s="103" t="s">
         <v>67</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -14175,7 +14184,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="103"/>
+      <c r="B129" s="104"/>
       <c r="C129" s="8" t="s">
         <v>146</v>
       </c>
@@ -14201,7 +14210,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="103"/>
+      <c r="B130" s="104"/>
       <c r="C130" s="8" t="s">
         <v>147</v>
       </c>
@@ -14227,7 +14236,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="102" t="s">
+      <c r="B131" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C131" s="8" t="s">
@@ -14255,7 +14264,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="103"/>
+      <c r="B132" s="104"/>
       <c r="C132" s="8" t="s">
         <v>146</v>
       </c>
@@ -14281,7 +14290,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="103"/>
+      <c r="B133" s="104"/>
       <c r="C133" s="8" t="s">
         <v>147</v>
       </c>
@@ -14307,7 +14316,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="102" t="s">
+      <c r="B134" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -14335,7 +14344,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="103"/>
+      <c r="B135" s="104"/>
       <c r="C135" s="8" t="s">
         <v>146</v>
       </c>
@@ -14361,7 +14370,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="103"/>
+      <c r="B136" s="104"/>
       <c r="C136" s="8" t="s">
         <v>147</v>
       </c>
@@ -14387,7 +14396,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="102" t="s">
+      <c r="B137" s="103" t="s">
         <v>79</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -14415,7 +14424,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="103"/>
+      <c r="B138" s="104"/>
       <c r="C138" s="8" t="s">
         <v>146</v>
       </c>
@@ -14441,7 +14450,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="103"/>
+      <c r="B139" s="104"/>
       <c r="C139" s="8" t="s">
         <v>147</v>
       </c>
@@ -14505,7 +14514,7 @@
       <c r="A142" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="102" t="s">
+      <c r="B142" s="103" t="s">
         <v>90</v>
       </c>
       <c r="C142" s="8" t="s">
@@ -14533,7 +14542,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="103"/>
+      <c r="B143" s="104"/>
       <c r="C143" s="8" t="s">
         <v>146</v>
       </c>
@@ -14559,7 +14568,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="103"/>
+      <c r="B144" s="104"/>
       <c r="C144" s="8" t="s">
         <v>147</v>
       </c>
@@ -14585,7 +14594,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="102" t="s">
+      <c r="B145" s="103" t="s">
         <v>67</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -14613,7 +14622,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="103"/>
+      <c r="B146" s="104"/>
       <c r="C146" s="8" t="s">
         <v>146</v>
       </c>
@@ -14639,7 +14648,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="103"/>
+      <c r="B147" s="104"/>
       <c r="C147" s="8" t="s">
         <v>147</v>
       </c>
@@ -14665,7 +14674,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="102" t="s">
+      <c r="B148" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -14693,7 +14702,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="103"/>
+      <c r="B149" s="104"/>
       <c r="C149" s="8" t="s">
         <v>146</v>
       </c>
@@ -14719,7 +14728,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="103"/>
+      <c r="B150" s="104"/>
       <c r="C150" s="8" t="s">
         <v>147</v>
       </c>
@@ -14745,7 +14754,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="102" t="s">
+      <c r="B151" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C151" s="8" t="s">
@@ -14773,7 +14782,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="103"/>
+      <c r="B152" s="104"/>
       <c r="C152" s="8" t="s">
         <v>146</v>
       </c>
@@ -14799,7 +14808,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="103"/>
+      <c r="B153" s="104"/>
       <c r="C153" s="8" t="s">
         <v>147</v>
       </c>
@@ -14825,7 +14834,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="102" t="s">
+      <c r="B154" s="103" t="s">
         <v>79</v>
       </c>
       <c r="C154" s="8" t="s">
@@ -14853,7 +14862,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="103"/>
+      <c r="B155" s="104"/>
       <c r="C155" s="8" t="s">
         <v>146</v>
       </c>
@@ -14879,7 +14888,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="103"/>
+      <c r="B156" s="104"/>
       <c r="C156" s="8" t="s">
         <v>147</v>
       </c>
@@ -34102,8 +34111,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34230,16 +34239,16 @@
       <c r="B13" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="102" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="19"/>
@@ -34249,16 +34258,16 @@
         <v>81</v>
       </c>
       <c r="C14" s="55">
-        <v>0.117129864319247</v>
+        <v>0.117126132164545</v>
       </c>
       <c r="D14" s="55">
-        <v>0.117129864319247</v>
+        <v>0.117126132164545</v>
       </c>
       <c r="E14" s="55">
-        <v>0.117129864319247</v>
+        <v>0.117126132164545</v>
       </c>
       <c r="F14" s="55">
-        <v>0.117129864319247</v>
+        <v>0.117126132164545</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34266,16 +34275,16 @@
         <v>82</v>
       </c>
       <c r="C15" s="101">
-        <v>0.23830774603205909</v>
+        <v>0.23830015273909191</v>
       </c>
       <c r="D15" s="101">
-        <v>0.23830774603205909</v>
+        <v>0.23830015273909191</v>
       </c>
       <c r="E15" s="101">
-        <v>0.23830774603205909</v>
+        <v>0.23830015273909191</v>
       </c>
       <c r="F15" s="101">
-        <v>0.23830774603205909</v>
+        <v>0.23830015273909191</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34283,16 +34292,16 @@
         <v>83</v>
       </c>
       <c r="C16" s="101">
-        <v>2.0150416790536672E-2</v>
+        <v>2.0149774729921199E-2</v>
       </c>
       <c r="D16" s="101">
-        <v>2.0150416790536672E-2</v>
+        <v>2.0149774729921199E-2</v>
       </c>
       <c r="E16" s="101">
-        <v>2.0150416790536672E-2</v>
+        <v>2.0149774729921199E-2</v>
       </c>
       <c r="F16" s="101">
-        <v>2.0150416790536672E-2</v>
+        <v>2.0149774729921199E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34334,16 +34343,16 @@
         <v>86</v>
       </c>
       <c r="C19" s="101">
-        <v>4.3259595359301448E-3</v>
+        <v>4.3258216961886246E-3</v>
       </c>
       <c r="D19" s="101">
-        <v>4.3259595359301448E-3</v>
+        <v>4.3258216961886246E-3</v>
       </c>
       <c r="E19" s="101">
-        <v>4.3259595359301448E-3</v>
+        <v>4.3258216961886246E-3</v>
       </c>
       <c r="F19" s="101">
-        <v>4.3259595359301448E-3</v>
+        <v>4.3258216961886246E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34351,16 +34360,16 @@
         <v>87</v>
       </c>
       <c r="C20" s="101">
-        <v>1.4451251271074979E-3</v>
+        <v>1.4769424718398599E-3</v>
       </c>
       <c r="D20" s="101">
-        <v>1.4451251271074979E-3</v>
+        <v>1.4769424718398599E-3</v>
       </c>
       <c r="E20" s="101">
-        <v>1.4451251271074979E-3</v>
+        <v>1.4769424718398599E-3</v>
       </c>
       <c r="F20" s="101">
-        <v>1.4451251271074979E-3</v>
+        <v>1.4769424718398599E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34368,16 +34377,16 @@
         <v>88</v>
       </c>
       <c r="C21" s="101">
-        <v>0.14876122831317579</v>
+        <v>0.1487564882759449</v>
       </c>
       <c r="D21" s="101">
-        <v>0.14876122831317579</v>
+        <v>0.1487564882759449</v>
       </c>
       <c r="E21" s="101">
-        <v>0.14876122831317579</v>
+        <v>0.1487564882759449</v>
       </c>
       <c r="F21" s="101">
-        <v>0.14876122831317579</v>
+        <v>0.1487564882759449</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34385,16 +34394,16 @@
         <v>89</v>
       </c>
       <c r="C22" s="101">
-        <v>0.4698796598819438</v>
+        <v>0.46986468792246849</v>
       </c>
       <c r="D22" s="101">
-        <v>0.4698796598819438</v>
+        <v>0.46986468792246849</v>
       </c>
       <c r="E22" s="101">
-        <v>0.4698796598819438</v>
+        <v>0.46986468792246849</v>
       </c>
       <c r="F22" s="101">
-        <v>0.4698796598819438</v>
+        <v>0.46986468792246849</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34527,7 +34536,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g7UNMz53QJNsc+tkIXVhYjhMYvTlNc8v8gvXsIWXJ0BF6HqnMQhR46b78J5qKpidGrWjY2lFHgnUUMdTgfX7+w==" saltValue="FhPUOGw9Jc4nYo1Uq1b4LA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sadLWueMPDmmVn6pA3hrJfCDmcHMjth0IA+NA9TpB2oknhku+/645RXJMb8ll6atkV5VLDi27zVULFpTC00pqw==" saltValue="rtY/nqRgyaBwNxtbxiN70A==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -34966,7 +34975,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -35086,7 +35095,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cjZGG35skIN/87gVYPq+qku8px1GpcfbcC9VQGwmKjtdbvNEf7x1kHTHwQlPZMuOorjL/9FyNZdN8JPWk+p31Q==" saltValue="TyxzFz+E2uI3dTroZBTeAA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IB7MiHBWLHOD3n7SGNliWu2mGupPPVbe8KE+glKDhHOozsWhuk+He47LNdLk+tDUQGoZE97I8w1Jq70fVdZv9A==" saltValue="YOkiaLUiL7Hr3xSbyfJV+g==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>

--- a/inputs/en/LiST countries/MNG_databook.xlsx
+++ b/inputs/en/LiST countries/MNG_databook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tharindu.wickram\Desktop\LiST Optima bridge\App\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FB6F79A-B003-45D0-A8F0-F25749438D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC6BDE6-12C9-4FE2-BB3F-41C5D3167BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3670" windowWidth="19200" windowHeight="6530" tabRatio="961" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3670" windowWidth="19200" windowHeight="6530" tabRatio="961" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1732,8 +1732,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -1746,8 +1745,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -1760,8 +1758,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -1774,8 +1771,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -2366,8 +2362,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -2380,8 +2375,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -2394,8 +2388,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -2408,8 +2401,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -3011,8 +3003,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -3025,8 +3016,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -3039,8 +3029,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -3053,8 +3042,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Tharindu Wickramaarachchi:
-RRR = 0.83 (0.74-0.93) for being anaemic [Radeva‐Petrova et al. 2014, The Cochrane Library [77]]
-RRR was used</t>
+Moorthy et al 2020, anemia RR 0.90 (0.84-0.95 )</t>
         </r>
       </text>
     </comment>
@@ -4373,7 +4361,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Nick Scott:
-RRR = 0.49 (0.29-0.82) for mortality due to prematurity [Lawn et al. 2010, I J Emi 2010[67]]</t>
+Sivanandan &amp; Sankar 2023, neonatal RR 0.68 (0.53-0.86)</t>
         </r>
       </text>
     </comment>
@@ -5023,7 +5011,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Nick Scott:
-RRR = 0.49 (0.29-0.82) for mortality due to prematurity [Lawn et al. 2010, I J Emi 2010[67]]</t>
+Sivanandan &amp; Sankar 2023, neonatal RR 0.68 (0.53-0.86)</t>
         </r>
       </text>
     </comment>
@@ -5673,7 +5661,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Nick Scott:
-RRR = 0.49 (0.29-0.82) for mortality due to prematurity [Lawn et al. 2010, I J Emi 2010[67]]</t>
+Sivanandan &amp; Sankar 2023, neonatal RR 0.68 (0.53-0.86)</t>
         </r>
       </text>
     </comment>
@@ -9282,8 +9270,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9318,7 +9306,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="41">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -9327,7 +9315,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="42">
-        <v>2030</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -9345,7 +9333,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="43">
-        <v>376515.01953125</v>
+        <v>347577.7421875</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9503,7 +9491,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="45">
-        <v>0.35675533525383901</v>
+        <v>0.57290349526853401</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9511,7 +9499,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="99">
-        <v>6.5910586704521698E-2</v>
+        <v>2.97816918362898E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9519,7 +9507,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="99">
-        <v>9.262041217609189E-2</v>
+        <v>2.5306962187057899E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9527,7 +9515,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="99">
-        <v>0.48471366586554798</v>
+        <v>0.37200785070811798</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -9536,7 +9524,7 @@
       </c>
       <c r="C33" s="48">
         <f>SUM(C29:C32)</f>
-        <v>1.0000000000000004</v>
+        <v>0.99999999999999956</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9556,7 +9544,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="43">
-        <v>8.1362855927762894</v>
+        <v>7.5434400000000004</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9564,7 +9552,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="43">
-        <v>13.4465395041529</v>
+        <v>12.68064</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="13"/>
@@ -9574,7 +9562,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="43">
-        <v>15.630880923074001</v>
+        <v>14.734360000000001</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -9584,7 +9572,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="100">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9600,7 +9588,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="43">
-        <v>5.230393168</v>
+        <v>4.3900499999999996</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9617,7 +9605,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="45">
-        <v>4.8123999999999997E-3</v>
+        <v>5.1263999999999997E-3</v>
       </c>
       <c r="D45" s="12"/>
     </row>
@@ -9626,7 +9614,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="45">
-        <v>5.6891800000000013E-2</v>
+        <v>5.5082600000000002E-2</v>
       </c>
       <c r="D46" s="12"/>
     </row>
@@ -9635,7 +9623,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="45">
-        <v>9.0186700000000009E-2</v>
+        <v>7.6126699999999992E-2</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="13"/>
@@ -9645,7 +9633,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="46">
-        <v>0.84810910000000006</v>
+        <v>0.86366429999999994</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -9786,7 +9774,7 @@
       </c>
       <c r="B1" s="22" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>Baseline (2021) coverage</v>
+        <v>Baseline (2024) coverage</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>161</v>
@@ -9809,7 +9797,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="45">
-        <v>0.529396294657698</v>
+        <v>0.16588473219572</v>
       </c>
       <c r="C2" s="98">
         <v>0.95</v>
@@ -10131,7 +10119,7 @@
         <v>181</v>
       </c>
       <c r="B16" s="45">
-        <v>0.62215034013593407</v>
+        <v>0.24510841041959999</v>
       </c>
       <c r="C16" s="98">
         <v>0.95</v>
@@ -10292,7 +10280,7 @@
         <v>185</v>
       </c>
       <c r="B23" s="98">
-        <v>8.8149681090000001E-2</v>
+        <v>8.8149700000000011E-2</v>
       </c>
       <c r="C23" s="98">
         <v>0.95</v>
@@ -10315,7 +10303,7 @@
         <v>186</v>
       </c>
       <c r="B24" s="45">
-        <v>0.86140611357519803</v>
+        <v>0.73630514730640995</v>
       </c>
       <c r="C24" s="98">
         <v>0.95</v>
@@ -10384,7 +10372,7 @@
         <v>189</v>
       </c>
       <c r="B27" s="45">
-        <v>0.55257206113936497</v>
+        <v>0.21268976590192001</v>
       </c>
       <c r="C27" s="98">
         <v>0.95</v>
@@ -10545,7 +10533,7 @@
         <v>195</v>
       </c>
       <c r="B34" s="45">
-        <v>0.58479392767034499</v>
+        <v>0.69964879999999996</v>
       </c>
       <c r="C34" s="98">
         <v>0.95</v>
@@ -10694,7 +10682,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10717,7 +10705,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>179</v>
       </c>
@@ -10726,7 +10714,7 @@
       </c>
       <c r="C2" s="47"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>180</v>
       </c>
@@ -10735,7 +10723,7 @@
       </c>
       <c r="C3" s="47"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>191</v>
       </c>
@@ -10744,7 +10732,7 @@
       </c>
       <c r="C4" s="47"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>188</v>
       </c>
@@ -10753,77 +10741,77 @@
       </c>
       <c r="C5" s="47"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
@@ -10859,74 +10847,74 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
     </row>
   </sheetData>
@@ -10999,15 +10987,15 @@
       </c>
       <c r="B3" s="21">
         <f>frac_mam_1month * 2.6</f>
-        <v>6.9472197599999994E-2</v>
+        <v>6.9472260000000008E-2</v>
       </c>
       <c r="C3" s="21">
         <f>frac_mam_1_5months * 2.6</f>
-        <v>6.9472197599999994E-2</v>
+        <v>6.9472260000000008E-2</v>
       </c>
       <c r="D3" s="21">
         <f>frac_mam_6_11months * 2.6</f>
-        <v>7.4787765000000001E-3</v>
+        <v>7.478900000000001E-3</v>
       </c>
       <c r="E3" s="21">
         <f>frac_mam_12_23months * 2.6</f>
@@ -11015,7 +11003,7 @@
       </c>
       <c r="F3" s="21">
         <f>frac_mam_24_59months * 2.6</f>
-        <v>9.9502270400000006E-3</v>
+        <v>9.9502000000000011E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11024,23 +11012,23 @@
       </c>
       <c r="B4" s="21">
         <f>frac_sam_1month * 2.6</f>
-        <v>1.9541222480000002E-2</v>
+        <v>1.9541340000000001E-2</v>
       </c>
       <c r="C4" s="21">
         <f>frac_sam_1_5months * 2.6</f>
-        <v>1.9541222480000002E-2</v>
+        <v>1.9541340000000001E-2</v>
       </c>
       <c r="D4" s="21">
         <f>frac_sam_6_11months * 2.6</f>
-        <v>1.8036372380000002E-2</v>
+        <v>1.8036460000000004E-2</v>
       </c>
       <c r="E4" s="21">
         <f>frac_sam_12_23months * 2.6</f>
-        <v>1.0243046840000001E-2</v>
+        <v>1.0242959999999999E-2</v>
       </c>
       <c r="F4" s="21">
         <f>frac_sam_24_59months * 2.6</f>
-        <v>4.8529179400000006E-3</v>
+        <v>4.8529000000000003E-3</v>
       </c>
     </row>
   </sheetData>
@@ -14870,8 +14858,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14925,7 +14913,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>166</v>
       </c>
@@ -14942,7 +14930,7 @@
       <c r="J2" s="87"/>
       <c r="K2" s="87"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>168</v>
       </c>
@@ -14959,7 +14947,7 @@
       <c r="J3" s="87"/>
       <c r="K3" s="87"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>169</v>
       </c>
@@ -14976,7 +14964,7 @@
       <c r="J4" s="87"/>
       <c r="K4" s="87"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>170</v>
       </c>
@@ -14993,7 +14981,7 @@
       <c r="J5" s="87"/>
       <c r="K5" s="87"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>171</v>
       </c>
@@ -15012,7 +15000,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>172</v>
       </c>
@@ -15031,7 +15019,7 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>173</v>
       </c>
@@ -15050,7 +15038,7 @@
       <c r="J8" s="87"/>
       <c r="K8" s="87"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>174</v>
       </c>
@@ -15069,7 +15057,7 @@
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>175</v>
       </c>
@@ -15086,7 +15074,7 @@
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>176</v>
       </c>
@@ -15103,7 +15091,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="87"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>177</v>
       </c>
@@ -15120,7 +15108,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="87"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>178</v>
       </c>
@@ -15137,7 +15125,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="87"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>179</v>
       </c>
@@ -15156,7 +15144,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="87"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>180</v>
       </c>
@@ -15175,7 +15163,7 @@
       <c r="J15" s="87"/>
       <c r="K15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>181</v>
       </c>
@@ -15196,7 +15184,7 @@
       <c r="J16" s="87"/>
       <c r="K16" s="87"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>182</v>
       </c>
@@ -15213,7 +15201,7 @@
       <c r="J17" s="87"/>
       <c r="K17" s="87"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -15232,7 +15220,7 @@
       <c r="J18" s="87"/>
       <c r="K18" s="87"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>151</v>
       </c>
@@ -15251,7 +15239,7 @@
       <c r="J19" s="87"/>
       <c r="K19" s="87"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>152</v>
       </c>
@@ -15270,7 +15258,7 @@
       <c r="J20" s="87"/>
       <c r="K20" s="87"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>183</v>
       </c>
@@ -15289,7 +15277,7 @@
       <c r="J21" s="87"/>
       <c r="K21" s="87"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>184</v>
       </c>
@@ -15626,7 +15614,7 @@
       <c r="K39" s="87"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r5uzVyzuX2cUXRUCd1eCp2cRQdoXMaTi7+j4lrtBEgwzDwwg07iN9Zvo/tiwSsVCYAFkOMHpp89HQAzExnqtEg==" saltValue="Yl6vtKysPUoNlkWylvJDXA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IvQDIxW99fzq1Zy0EhkbKUzL+Oo6JppYFJRusT7f1RK58axANCQbQrXBA4I5Zda1hiQSlfJ6FnKfxlkgJRWRpg==" saltValue="tOfPnYqP3Wy6+yrctBxWkQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15693,7 +15681,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>67</v>
       </c>
@@ -15722,7 +15710,7 @@
       <c r="J2" s="87"/>
       <c r="K2" s="87"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>77</v>
       </c>
@@ -15751,7 +15739,7 @@
       <c r="J3" s="87"/>
       <c r="K3" s="87"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>78</v>
       </c>
@@ -15780,7 +15768,7 @@
       <c r="J4" s="87"/>
       <c r="K4" s="87"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>79</v>
       </c>
@@ -15809,7 +15797,7 @@
       <c r="J5" s="87"/>
       <c r="K5" s="87"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>80</v>
       </c>
@@ -15838,7 +15826,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="87"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>112</v>
       </c>
@@ -15859,7 +15847,7 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>113</v>
       </c>
@@ -15880,7 +15868,7 @@
       <c r="J8" s="87"/>
       <c r="K8" s="87"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>114</v>
       </c>
@@ -15901,7 +15889,7 @@
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>115</v>
       </c>
@@ -15922,7 +15910,7 @@
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>58</v>
       </c>
@@ -15943,7 +15931,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
@@ -15962,7 +15950,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>60</v>
       </c>
@@ -15981,7 +15969,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>61</v>
       </c>
@@ -16014,7 +16002,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16057,360 +16045,398 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>start_year</f>
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B2" s="49">
-        <v>65339.898400000013</v>
+        <v>61927.8842</v>
       </c>
       <c r="C2" s="49">
-        <v>111000</v>
+        <v>128000</v>
       </c>
       <c r="D2" s="49">
-        <v>235000</v>
+        <v>217000</v>
       </c>
       <c r="E2" s="49">
-        <v>282000</v>
+        <v>284000</v>
       </c>
       <c r="F2" s="49">
-        <v>216000</v>
+        <v>227000</v>
       </c>
       <c r="G2" s="17">
-        <f t="shared" ref="G2:G11" si="0">C2+D2+E2+F2</f>
-        <v>844000</v>
+        <f t="shared" ref="G2:G13" si="0">C2+D2+E2+F2</f>
+        <v>856000</v>
       </c>
       <c r="H2" s="17">
-        <f t="shared" ref="H2:H11" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
-        <v>74640.282569463467</v>
+        <f t="shared" ref="H2:H13" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
+        <v>70682.897134382976</v>
       </c>
       <c r="I2" s="17">
-        <f t="shared" ref="I2:I11" si="2">G2-H2</f>
-        <v>769359.71743053652</v>
+        <f t="shared" ref="I2:I13" si="2">G2-H2</f>
+        <v>785317.10286561702</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A40" si="3">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B3" s="49">
-        <v>64272.571800000012</v>
+        <v>60637.248000000007</v>
       </c>
       <c r="C3" s="50">
-        <v>115000</v>
+        <v>136000</v>
       </c>
       <c r="D3" s="50">
-        <v>228000</v>
+        <v>214000</v>
       </c>
       <c r="E3" s="50">
-        <v>285000</v>
+        <v>281000</v>
       </c>
       <c r="F3" s="50">
-        <v>220000</v>
+        <v>232000</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" si="0"/>
-        <v>848000</v>
+        <v>863000</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" si="1"/>
-        <v>73421.034285203743</v>
+        <v>69209.798110558899</v>
       </c>
       <c r="I3" s="17">
         <f t="shared" si="2"/>
-        <v>774578.96571479621</v>
+        <v>793790.20188944112</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="3"/>
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="B4" s="49">
-        <v>63140.796000000009</v>
+        <v>60106.635199999997</v>
       </c>
       <c r="C4" s="50">
-        <v>121000</v>
+        <v>144000</v>
       </c>
       <c r="D4" s="50">
-        <v>221000</v>
+        <v>214000</v>
       </c>
       <c r="E4" s="50">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="F4" s="50">
-        <v>222000</v>
+        <v>239000</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" si="0"/>
-        <v>849000</v>
+        <v>872000</v>
       </c>
       <c r="H4" s="17">
         <f t="shared" si="1"/>
-        <v>72128.163197462956</v>
+        <v>68604.170283206331</v>
       </c>
       <c r="I4" s="17">
         <f t="shared" si="2"/>
-        <v>776871.83680253709</v>
+        <v>803395.82971679373</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="3"/>
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="B5" s="49">
-        <v>61927.8842</v>
+        <v>59536.365600000012</v>
       </c>
       <c r="C5" s="50">
-        <v>128000</v>
+        <v>154000</v>
       </c>
       <c r="D5" s="50">
-        <v>217000</v>
+        <v>216000</v>
       </c>
       <c r="E5" s="50">
-        <v>284000</v>
+        <v>266000</v>
       </c>
       <c r="F5" s="50">
-        <v>227000</v>
+        <v>247000</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" si="0"/>
-        <v>856000</v>
+        <v>883000</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" si="1"/>
-        <v>70742.607331893421</v>
+        <v>67953.279202453661</v>
       </c>
       <c r="I5" s="17">
         <f t="shared" si="2"/>
-        <v>785257.39266810659</v>
+        <v>815046.72079754632</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="3"/>
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="B6" s="49">
-        <v>60637.248000000007</v>
+        <v>58927.431600000011</v>
       </c>
       <c r="C6" s="50">
-        <v>136000</v>
+        <v>163000</v>
       </c>
       <c r="D6" s="50">
-        <v>214000</v>
+        <v>221000</v>
       </c>
       <c r="E6" s="50">
-        <v>281000</v>
+        <v>256000</v>
       </c>
       <c r="F6" s="50">
-        <v>232000</v>
+        <v>256000</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" si="0"/>
-        <v>863000</v>
+        <v>896000</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" si="1"/>
-        <v>69268.263890576141</v>
+        <v>67258.257568182671</v>
       </c>
       <c r="I6" s="17">
         <f t="shared" si="2"/>
-        <v>793731.73610942392</v>
+        <v>828741.74243181734</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="3"/>
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="B7" s="49">
-        <v>60106.635199999997</v>
+        <v>58264.324800000002</v>
       </c>
       <c r="C7" s="50">
-        <v>144000</v>
+        <v>170000</v>
       </c>
       <c r="D7" s="50">
-        <v>214000</v>
+        <v>228000</v>
       </c>
       <c r="E7" s="50">
-        <v>275000</v>
+        <v>245000</v>
       </c>
       <c r="F7" s="50">
-        <v>239000</v>
+        <v>264000</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" si="0"/>
-        <v>872000</v>
+        <v>907000</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="1"/>
-        <v>68662.124452089105</v>
+        <v>66501.404490784771</v>
       </c>
       <c r="I7" s="17">
         <f t="shared" si="2"/>
-        <v>803337.87554791092</v>
+        <v>840498.59550921526</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="3"/>
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="B8" s="49">
-        <v>59536.365600000012</v>
+        <v>57581.37000000001</v>
       </c>
       <c r="C8" s="50">
-        <v>154000</v>
+        <v>175000</v>
       </c>
       <c r="D8" s="50">
-        <v>216000</v>
+        <v>237000</v>
       </c>
       <c r="E8" s="50">
-        <v>266000</v>
+        <v>236000</v>
       </c>
       <c r="F8" s="50">
-        <v>247000</v>
+        <v>270000</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="0"/>
-        <v>883000</v>
+        <v>918000</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>68010.683523543485</v>
+        <v>65721.89741575002</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="2"/>
-        <v>814989.31647645647</v>
+        <v>852278.10258425004</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="3"/>
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="B9" s="49">
-        <v>58927.431600000011</v>
+        <v>56960.43940000001</v>
       </c>
       <c r="C9" s="50">
-        <v>163000</v>
+        <v>181714.28571428571</v>
       </c>
       <c r="D9" s="50">
-        <v>221000</v>
+        <v>239857.1428571429</v>
       </c>
       <c r="E9" s="50">
-        <v>256000</v>
+        <v>229142.8571428571</v>
       </c>
       <c r="F9" s="50">
-        <v>256000</v>
+        <v>276142.85714285722</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>896000</v>
+        <v>926857.14285714296</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="1"/>
-        <v>67315.074761682379</v>
+        <v>65013.183170231023</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="2"/>
-        <v>828684.92523831758</v>
+        <v>861843.9596869119</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="3"/>
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="B10" s="49">
-        <v>58264.324800000002</v>
+        <v>56435.181028571438</v>
       </c>
       <c r="C10" s="50">
-        <v>170000</v>
+        <v>188244.8979591837</v>
       </c>
       <c r="D10" s="50">
-        <v>228000</v>
+        <v>243551.02040816331</v>
       </c>
       <c r="E10" s="50">
-        <v>245000</v>
+        <v>221734.69387755101</v>
       </c>
       <c r="F10" s="50">
-        <v>264000</v>
+        <v>282448.97959183669</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="0"/>
-        <v>907000</v>
+        <v>935979.59183673467</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="1"/>
-        <v>66557.582323865339</v>
+        <v>64413.666750184188</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" si="2"/>
-        <v>840442.41767613462</v>
+        <v>871565.92508655053</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="B11" s="49">
-        <v>57581.37000000001</v>
+        <v>55910.687575510223</v>
       </c>
       <c r="C11" s="50">
-        <v>175000</v>
+        <v>194565.5976676385</v>
       </c>
       <c r="D11" s="50">
-        <v>237000</v>
+        <v>247772.59475218659</v>
       </c>
       <c r="E11" s="50">
-        <v>236000</v>
+        <v>214125.3644314869</v>
       </c>
       <c r="F11" s="50">
-        <v>270000</v>
+        <v>288655.97667638492</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="0"/>
-        <v>918000</v>
+        <v>945119.53352769697</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="1"/>
-        <v>65777.416751184093</v>
+        <v>63815.023388323891</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="2"/>
-        <v>852222.58324881596</v>
+        <v>881304.51013937313</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="str">
+      <c r="A12" s="5">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+        <v>2034</v>
+      </c>
+      <c r="B12" s="49">
+        <v>55392.733572011683</v>
+      </c>
+      <c r="C12" s="50">
+        <v>200360.6830487297</v>
+      </c>
+      <c r="D12" s="50">
+        <v>252311.53685964181</v>
+      </c>
+      <c r="E12" s="50">
+        <v>206714.70220741359</v>
+      </c>
+      <c r="F12" s="50">
+        <v>294606.83048729697</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>953993.75260308199</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="1"/>
+        <v>63223.843986305357</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="2"/>
+        <v>890769.90861677658</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+      <c r="A13" s="5">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+        <v>2035</v>
+      </c>
+      <c r="B13" s="49">
+        <v>54887.776710870487</v>
+      </c>
+      <c r="C13" s="50">
+        <v>205697.92348426249</v>
+      </c>
+      <c r="D13" s="50">
+        <v>256784.61355387641</v>
+      </c>
+      <c r="E13" s="50">
+        <v>199673.94537990121</v>
+      </c>
+      <c r="F13" s="50">
+        <v>300122.09198548232</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>962278.5744035223</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="1"/>
+        <v>62647.499188894304</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="2"/>
+        <v>899631.07521462801</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
@@ -16817,7 +16843,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b3zuR9hAPFKmhyUPgxSBwpwr0L8i4PvaW2CunfDaw9hwq0s+u3YPrQFKBT82DJ5eJ424U2PP38ojcCo53DV0Pw==" saltValue="mehRfJSA9N1k+XdaDNGXRA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wKxEoWv7nnHIidhOP9O7yQQ4/tikEcXr6gTA2GrtyLYFAb1ix6Ln3irIlHONZ8I1dXNIh1a5t0Hcu3pPb5ZHrw==" saltValue="PZemEz5qyqkMYDJdSEC/KA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B17:C17 E17:I17 B18:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16836,8 +16862,8 @@
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16901,7 +16927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="104"/>
       <c r="C3" s="8" t="s">
         <v>146</v>
@@ -16923,7 +16949,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="104"/>
       <c r="C4" s="8" t="s">
         <v>147</v>
@@ -16945,7 +16971,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="103" t="s">
         <v>67</v>
       </c>
@@ -16953,8 +16979,6 @@
         <v>145</v>
       </c>
       <c r="D5" s="88">
-        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.56)</f>
         <v>1.56</v>
       </c>
       <c r="E5" s="88">
@@ -16970,14 +16994,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="104"/>
       <c r="C6" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="88">
-        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.56)</f>
         <v>1.56</v>
       </c>
       <c r="E6" s="88">
@@ -16993,7 +17015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="104"/>
       <c r="C7" s="8" t="s">
         <v>147</v>
@@ -17014,7 +17036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="103" t="s">
         <v>77</v>
       </c>
@@ -17025,9 +17047,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="88">
-        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.56)</f>
-        <v>3.1988831369945343</v>
+        <v>1.56</v>
       </c>
       <c r="F8" s="88">
         <v>1</v>
@@ -17039,7 +17059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="104"/>
       <c r="C9" s="8" t="s">
         <v>146</v>
@@ -17048,9 +17068,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="88">
-        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.56)</f>
-        <v>3.1988831369945343</v>
+        <v>1.56</v>
       </c>
       <c r="F9" s="88">
         <v>1</v>
@@ -17062,7 +17080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="104"/>
       <c r="C10" s="8" t="s">
         <v>147</v>
@@ -17083,7 +17101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="103" t="s">
         <v>78</v>
       </c>
@@ -17106,7 +17124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="104"/>
       <c r="C12" s="8" t="s">
         <v>146</v>
@@ -17127,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="104"/>
       <c r="C13" s="8" t="s">
         <v>147</v>
@@ -17148,7 +17166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="103" t="s">
         <v>79</v>
       </c>
@@ -17171,7 +17189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="104"/>
       <c r="C15" s="8" t="s">
         <v>146</v>
@@ -17192,7 +17210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
       <c r="C16" s="8" t="s">
         <v>147</v>
@@ -17236,7 +17254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="86"/>
       <c r="E18" s="86"/>
       <c r="F18" s="86"/>
@@ -17269,7 +17287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="104"/>
       <c r="C20" s="8" t="s">
         <v>146</v>
@@ -17290,7 +17308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="104"/>
       <c r="C21" s="8" t="s">
         <v>147</v>
@@ -17311,7 +17329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="103" t="s">
         <v>67</v>
       </c>
@@ -17334,7 +17352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="104"/>
       <c r="C23" s="8" t="s">
         <v>146</v>
@@ -17355,7 +17373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="104"/>
       <c r="C24" s="8" t="s">
         <v>147</v>
@@ -17376,7 +17394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="103" t="s">
         <v>77</v>
       </c>
@@ -17399,7 +17417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="104"/>
       <c r="C26" s="8" t="s">
         <v>146</v>
@@ -18081,9 +18099,7 @@
         <v>145</v>
       </c>
       <c r="D58" s="88">
-        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.37)</f>
-        <v>9.2284118164441651</v>
+        <v>1.37</v>
       </c>
       <c r="E58" s="88">
         <f t="shared" ref="E58:H60" si="1">IF(E5=1,1,E5*0.9)</f>
@@ -18108,9 +18124,7 @@
         <v>146</v>
       </c>
       <c r="D59" s="88">
-        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.37)</f>
-        <v>9.2284118164441651</v>
+        <v>1.37</v>
       </c>
       <c r="E59" s="88">
         <f t="shared" si="1"/>
@@ -18167,9 +18181,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="88">
-        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.37)</f>
-        <v>2.0710619560188506</v>
+        <v>1.37</v>
       </c>
       <c r="F61" s="88">
         <f t="shared" ref="F61:H63" si="3">IF(F8=1,1,F8*0.9)</f>
@@ -18194,9 +18206,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="88">
-        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.37)</f>
-        <v>2.0710619560188506</v>
+        <v>1.37</v>
       </c>
       <c r="F62" s="88">
         <f t="shared" si="3"/>
@@ -19426,8 +19436,6 @@
         <v>145</v>
       </c>
       <c r="D111" s="88">
-        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.77)</f>
         <v>1.77</v>
       </c>
       <c r="E111" s="88">
@@ -19453,8 +19461,6 @@
         <v>146</v>
       </c>
       <c r="D112" s="88">
-        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$C$2))) /
-('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.77)</f>
         <v>1.77</v>
       </c>
       <c r="E112" s="88">
@@ -19512,9 +19518,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="88">
-        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.77)</f>
-        <v>5.988904611353381</v>
+        <v>1.77</v>
       </c>
       <c r="F114" s="88">
         <f t="shared" ref="F114:H116" si="13">IF(F8=1,1,F8*1.05)</f>
@@ -19539,9 +19543,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="88">
-        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$D$2))) /
-('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.77)</f>
-        <v>5.988904611353381</v>
+        <v>1.77</v>
       </c>
       <c r="F115" s="88">
         <f t="shared" si="13"/>
@@ -20643,7 +20645,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1IUQIPGO8A+lS5t9zmQeExgWOE7Hq9s+LMwGp5ZzK7cP6BPM6Y+s1H4DuDLssE5RfO3cDfuZkDwFgb68EXGf1A==" saltValue="EhqwdEStb6jxlKMHBUWr7g==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="riIqDHxQDNIc95k8WEEMlpv2yK5yRhEl3GZr9d21PG7QnhNwxgtjaWmZN+9widROwyhXiwQ4XZiTM/cZ2Cl95g==" saltValue="b1Xx0XPjIcbtdUQJGdoNkQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -20703,8 +20705,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21925,7 +21927,7 @@
   <dimension ref="A1:P328"/>
   <sheetViews>
     <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -30064,8 +30066,8 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -30166,11 +30168,11 @@
       <c r="E6" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.64, (0.64*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.64*SUM('Nutritional status distribution'!$E$4:$E$5)))
 / (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.62772933400592412</v>
+        <v>0.62772933957397947</v>
       </c>
       <c r="F6" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$F$4),0.64, (0.64*SUM('Nutritional status distribution'!$F$4:$F$5)/(1-0.64*SUM('Nutritional status distribution'!$F$4:$F$5)))/ (SUM('Nutritional status distribution'!$F$4:$F$5)/(1-SUM('Nutritional status distribution'!$F$4:$F$5))))</f>
-        <v>0.61370262669975939</v>
+        <v>0.61370263041382034</v>
       </c>
       <c r="G6" s="90">
         <v>1</v>
@@ -30188,11 +30190,11 @@
       </c>
       <c r="E7" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.88, (0.88*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.88*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.8743031276508324</v>
+        <v>0.8743031302693699</v>
       </c>
       <c r="F7" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$F$4),0.88, (0.88*SUM('Nutritional status distribution'!$F$4:$F$5)/(1-0.88*SUM('Nutritional status distribution'!$F$4:$F$5)))/ (SUM('Nutritional status distribution'!$F$4:$F$5)/(1-SUM('Nutritional status distribution'!$F$4:$F$5))))</f>
-        <v>0.86760757020358403</v>
+        <v>0.86760757200310035</v>
       </c>
       <c r="G7" s="90">
         <v>1</v>
@@ -30210,11 +30212,11 @@
       </c>
       <c r="E8" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.88, (0.88*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.88*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.8743031276508324</v>
+        <v>0.8743031302693699</v>
       </c>
       <c r="F8" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!$F$4),0.88, (0.88*SUM('Nutritional status distribution'!$F$4:$F$5)/(1-0.88*SUM('Nutritional status distribution'!$F$4:$F$5)))/ (SUM('Nutritional status distribution'!$F$4:$F$5)/(1-SUM('Nutritional status distribution'!$F$4:$F$5))))</f>
-        <v>0.86760757020358403</v>
+        <v>0.86760757200310035</v>
       </c>
       <c r="G8" s="90">
         <v>1</v>
@@ -30493,11 +30495,11 @@
       </c>
       <c r="E29" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.44, (0.44*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.44*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.42701551027072049</v>
+        <v>0.42701551610058974</v>
       </c>
       <c r="F29" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.44, (0.44*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.44*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.412504085437148</v>
+        <v>0.41250408923381393</v>
       </c>
       <c r="G29" s="90">
         <f>IF(G6=1,1,G6*0.9)</f>
@@ -30518,11 +30520,11 @@
       </c>
       <c r="E30" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.85, (0.85*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.85*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.84313278810953762</v>
+        <v>0.84313279126091523</v>
       </c>
       <c r="F30" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.85, (0.85*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.85*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.83509004090527883</v>
+        <v>0.83509004306277224</v>
       </c>
       <c r="G30" s="90">
         <f>IF(G7=1,1,G7*0.9)</f>
@@ -30543,11 +30545,11 @@
       </c>
       <c r="E31" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.85, (0.85*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.85*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.84313278810953762</v>
+        <v>0.84313279126091523</v>
       </c>
       <c r="F31" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.85, (0.85*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.85*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.83509004090527883</v>
+        <v>0.83509004306277224</v>
       </c>
       <c r="G31" s="90">
         <f>IF(G8=1,1,G8*0.9)</f>
@@ -30604,12 +30606,10 @@
         <v>300</v>
       </c>
       <c r="C35" s="90">
-        <f>C12*0.9</f>
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="D35" s="90">
-        <f>D12*0.9</f>
-        <v>1.2509999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E35" s="90">
         <v>1</v>
@@ -30870,11 +30870,11 @@
       </c>
       <c r="E52" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.92, (0.92*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.92*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.91602086600724042</v>
+        <v>0.91602086784018388</v>
       </c>
       <c r="F52" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.92, (0.92*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.92*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.91132211709085686</v>
+        <v>0.91132211835692323</v>
       </c>
       <c r="G52" s="90">
         <f>IF(G6=1,1,G6*1.1)</f>
@@ -30895,11 +30895,11 @@
       </c>
       <c r="E53" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.91, (0.91*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.91*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.90557452474976907</v>
+        <v>0.90557452678721306</v>
       </c>
       <c r="F53" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.91, (0.91*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.91*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.90035486933270259</v>
+        <v>0.90035487073822928</v>
       </c>
       <c r="G53" s="90">
         <f>IF(G7=1,1,G7*1.1)</f>
@@ -30920,11 +30920,11 @@
       </c>
       <c r="E54" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.91, (0.91*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.91*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
-        <v>0.90557452474976907</v>
+        <v>0.90557452678721306</v>
       </c>
       <c r="F54" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.91, (0.91*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.91*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
-        <v>0.90035486933270259</v>
+        <v>0.90035487073822928</v>
       </c>
       <c r="G54" s="90">
         <f>IF(G8=1,1,G8*1.1)</f>
@@ -30981,12 +30981,10 @@
         <v>314</v>
       </c>
       <c r="C58" s="90">
-        <f>C12*1.1</f>
-        <v>1.6500000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="D58" s="90">
-        <f>D12*1.1</f>
-        <v>1.5289999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="E58" s="90">
         <v>1</v>
@@ -31156,8 +31154,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31982,8 +31980,8 @@
   </sheetPr>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="E35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -32383,16 +32381,16 @@
         <v>1</v>
       </c>
       <c r="L10" s="90">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="M10" s="90">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="N10" s="90">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="O10" s="90">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -32676,59 +32674,48 @@
         <v>1</v>
       </c>
       <c r="E19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.72,(0.72*'Nutritional status distribution'!E$14/(1-0.72*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.62207089011585537</v>
+        <f t="shared" ref="E19:O19" si="0">0.72</f>
+        <v>0.72</v>
       </c>
       <c r="F19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.72,(0.72*'Nutritional status distribution'!F$14/(1-0.72*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.65326290671213738</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="G19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.72,(0.72*'Nutritional status distribution'!G$14/(1-0.72*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.65326290671213738</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="H19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.72,(0.72*'Nutritional status distribution'!H$14/(1-0.72*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.64187045942903931</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="I19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.72,(0.72*'Nutritional status distribution'!I$14/(1-0.72*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.64187045942903931</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="J19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.72,(0.72*'Nutritional status distribution'!J$14/(1-0.72*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.64187045942903931</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="K19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.72,(0.72*'Nutritional status distribution'!K$14/(1-0.72*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.64187045942903931</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="L19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.72,(0.72*'Nutritional status distribution'!L$14/(1-0.72*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.67589591628854528</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="M19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.72,(0.72*'Nutritional status distribution'!M$14/(1-0.72*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.67589591628854528</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="N19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.72,(0.72*'Nutritional status distribution'!N$14/(1-0.72*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.67589591628854528</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="O19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.72,(0.72*'Nutritional status distribution'!O$14/(1-0.72*'Nutritional status distribution'!O$14))
-/ ('Nutritional status distribution'!O$14/(1-'Nutritional status distribution'!O$14)))</f>
-        <v>0.67589591628854528</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -32786,59 +32773,37 @@
         <v>1</v>
       </c>
       <c r="E21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.8,(0.8*'Nutritional status distribution'!E$14/(1-0.8*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.71913604982927615</v>
+        <v>0.8</v>
       </c>
       <c r="F21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.8,(0.8*'Nutritional status distribution'!F$14/(1-0.8*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.74559319907762878</v>
+        <v>0.8</v>
       </c>
       <c r="G21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.8,(0.8*'Nutritional status distribution'!G$14/(1-0.8*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.74559319907762878</v>
+        <v>0.8</v>
       </c>
       <c r="H21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.8,(0.8*'Nutritional status distribution'!H$14/(1-0.8*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.73600844772967267</v>
+        <v>0.8</v>
       </c>
       <c r="I21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.8,(0.8*'Nutritional status distribution'!I$14/(1-0.8*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.73600844772967267</v>
+        <v>0.8</v>
       </c>
       <c r="J21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.8,(0.8*'Nutritional status distribution'!J$14/(1-0.8*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.73600844772967267</v>
+        <v>0.8</v>
       </c>
       <c r="K21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.8,(0.8*'Nutritional status distribution'!K$14/(1-0.8*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.73600844772967267</v>
+        <v>0.8</v>
       </c>
       <c r="L21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.8,(0.8*'Nutritional status distribution'!L$14/(1-0.8*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.76437323279924596</v>
+        <v>0.8</v>
       </c>
       <c r="M21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.8,(0.8*'Nutritional status distribution'!M$14/(1-0.8*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.76437323279924596</v>
+        <v>0.8</v>
       </c>
       <c r="N21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.8,(0.8*'Nutritional status distribution'!N$14/(1-0.8*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.76437323279924596</v>
+        <v>0.8</v>
       </c>
       <c r="O21" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.8,(0.8*'Nutritional status distribution'!O$14/(1-0.8*'Nutritional status distribution'!O$14))
-/ ('Nutritional status distribution'!O$14/(1-'Nutritional status distribution'!O$14)))</f>
-        <v>0.76437323279924596</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="92" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -32905,47 +32870,47 @@
         <v>0.4</v>
       </c>
       <c r="E26" s="90">
-        <f t="shared" ref="E26:O26" si="0">IF(E3=1,1,E3*0.9)</f>
+        <f t="shared" ref="E26:O26" si="1">IF(E3=1,1,E3*0.9)</f>
         <v>1</v>
       </c>
       <c r="F26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O26" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32954,23 +32919,23 @@
         <v>175</v>
       </c>
       <c r="C27" s="90">
-        <f t="shared" ref="C27:G33" si="1">IF(C4=1,1,C4*0.9)</f>
+        <f t="shared" ref="C27:G33" si="2">IF(C4=1,1,C4*0.9)</f>
         <v>1</v>
       </c>
       <c r="D27" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E27" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F27" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G27" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H27" s="90">
@@ -32986,19 +32951,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L27" s="90">
-        <f t="shared" ref="L27:O30" si="2">IF(L4=1,1,L4*0.9)</f>
+        <f t="shared" ref="L27:O30" si="3">IF(L4=1,1,L4*0.9)</f>
         <v>1</v>
       </c>
       <c r="M27" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N27" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O27" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33007,23 +32972,23 @@
         <v>176</v>
       </c>
       <c r="C28" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D28" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E28" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F28" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G28" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H28" s="90">
@@ -33039,19 +33004,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L28" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M28" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N28" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O28" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33060,23 +33025,23 @@
         <v>177</v>
       </c>
       <c r="C29" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D29" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E29" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F29" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G29" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H29" s="90">
@@ -33092,19 +33057,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L29" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M29" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N29" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O29" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33113,23 +33078,23 @@
         <v>178</v>
       </c>
       <c r="C30" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D30" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E30" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F30" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G30" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H30" s="90">
@@ -33145,19 +33110,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L30" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M30" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N30" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O30" s="90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33166,39 +33131,39 @@
         <v>179</v>
       </c>
       <c r="C31" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D31" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E31" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F31" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G31" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H31" s="90">
-        <f t="shared" ref="H31:K34" si="3">IF(H8=1,1,H8*0.9)</f>
+        <f t="shared" ref="H31:K34" si="4">IF(H8=1,1,H8*0.9)</f>
         <v>1</v>
       </c>
       <c r="I31" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J31" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K31" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L31" s="90">
@@ -33219,39 +33184,39 @@
         <v>180</v>
       </c>
       <c r="C32" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D32" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E32" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F32" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G32" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H32" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I32" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J32" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K32" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L32" s="90">
@@ -33272,39 +33237,39 @@
         <v>181</v>
       </c>
       <c r="C33" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D33" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E33" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F33" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G33" s="90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H33" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I33" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J33" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K33" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L33" s="90">
@@ -33342,19 +33307,19 @@
         <v>1</v>
       </c>
       <c r="H34" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I34" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J34" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K34" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L34" s="90">
@@ -33423,11 +33388,11 @@
         <v>188</v>
       </c>
       <c r="C36" s="90">
-        <f t="shared" ref="C36:D38" si="4">IF(C13=1,1,C13*0.9)</f>
+        <f t="shared" ref="C36:D38" si="5">IF(C13=1,1,C13*0.9)</f>
         <v>1</v>
       </c>
       <c r="D36" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E36" s="90">
@@ -33440,35 +33405,35 @@
         <v>0.62</v>
       </c>
       <c r="H36" s="90">
-        <f t="shared" ref="H36:O36" si="5">IF(H13=1,1,H13*0.9)</f>
+        <f t="shared" ref="H36:O36" si="6">IF(H13=1,1,H13*0.9)</f>
         <v>1</v>
       </c>
       <c r="I36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O36" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -33477,39 +33442,39 @@
         <v>189</v>
       </c>
       <c r="C37" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D37" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E37" s="90">
-        <f t="shared" ref="E37:K37" si="6">IF(E14=1,1,E14*0.9)</f>
+        <f t="shared" ref="E37:K37" si="7">IF(E14=1,1,E14*0.9)</f>
         <v>1</v>
       </c>
       <c r="F37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K37" s="90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L37" s="90">
@@ -33534,11 +33499,11 @@
         <v>192</v>
       </c>
       <c r="C38" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D38" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E38" s="90">
@@ -33548,39 +33513,39 @@
         <v>0.3</v>
       </c>
       <c r="G38" s="90">
-        <f t="shared" ref="G38:O38" si="7">IF(G15=1,1,G15*0.9)</f>
+        <f t="shared" ref="G38:O38" si="8">IF(G15=1,1,G15*0.9)</f>
         <v>1</v>
       </c>
       <c r="H38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O38" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -33595,55 +33560,55 @@
         <v>172</v>
       </c>
       <c r="C41" s="90">
-        <f t="shared" ref="C41:O41" si="8">IF(C18=1,1,C18*0.9)</f>
+        <f t="shared" ref="C41:O41" si="9">IF(C18=1,1,C18*0.9)</f>
         <v>1</v>
       </c>
       <c r="D41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O41" s="90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -33652,67 +33617,45 @@
         <v>173</v>
       </c>
       <c r="C42" s="90">
-        <f t="shared" ref="C42:D44" si="9">IF(C19=1,1,C19*0.9)</f>
+        <f t="shared" ref="C42:D44" si="10">IF(C19=1,1,C19*0.9)</f>
         <v>1</v>
       </c>
       <c r="D42" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.54,(0.54*'Nutritional status distribution'!E$14/(1-0.54*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.42903937795445662</v>
+        <v>0.54</v>
       </c>
       <c r="F42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.54,(0.54*'Nutritional status distribution'!F$14/(1-0.54*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.46239461523689757</v>
+        <v>0.54</v>
       </c>
       <c r="G42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.54,(0.54*'Nutritional status distribution'!G$14/(1-0.54*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.46239461523689757</v>
+        <v>0.54</v>
       </c>
       <c r="H42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.54,(0.54*'Nutritional status distribution'!H$14/(1-0.54*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.45001076065903062</v>
+        <v>0.54</v>
       </c>
       <c r="I42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.54,(0.54*'Nutritional status distribution'!I$14/(1-0.54*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.45001076065903062</v>
+        <v>0.54</v>
       </c>
       <c r="J42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.54,(0.54*'Nutritional status distribution'!J$14/(1-0.54*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.45001076065903062</v>
+        <v>0.54</v>
       </c>
       <c r="K42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.54,(0.54*'Nutritional status distribution'!K$14/(1-0.54*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.45001076065903062</v>
+        <v>0.54</v>
       </c>
       <c r="L42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.54,(0.54*'Nutritional status distribution'!L$14/(1-0.54*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.48771632848519952</v>
+        <v>0.54</v>
       </c>
       <c r="M42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.54,(0.54*'Nutritional status distribution'!M$14/(1-0.54*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.48771632848519952</v>
+        <v>0.54</v>
       </c>
       <c r="N42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.54,(0.54*'Nutritional status distribution'!N$14/(1-0.54*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.48771632848519952</v>
+        <v>0.54</v>
       </c>
       <c r="O42" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.54,(0.54*'Nutritional status distribution'!O$14/(1-0.54*'Nutritional status distribution'!O$14))
-/ ('Nutritional status distribution'!O$14/(1-'Nutritional status distribution'!O$14)))</f>
-        <v>0.48771632848519952</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -33720,55 +33663,55 @@
         <v>174</v>
       </c>
       <c r="C43" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D43" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E43" s="90">
-        <f t="shared" ref="E43:O43" si="10">IF(E20=1,1,E20*0.9)</f>
+        <f t="shared" ref="E43:O43" si="11">IF(E20=1,1,E20*0.9)</f>
         <v>1</v>
       </c>
       <c r="F43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O43" s="90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -33777,67 +33720,45 @@
         <v>182</v>
       </c>
       <c r="C44" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D44" s="90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.7,(0.7*'Nutritional status distribution'!E$14/(1-0.7*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.59897201653871379</v>
+        <v>0.7</v>
       </c>
       <c r="F44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.7,(0.7*'Nutritional status distribution'!F$14/(1-0.7*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.63093942682459947</v>
+        <v>0.7</v>
       </c>
       <c r="G44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.7,(0.7*'Nutritional status distribution'!G$14/(1-0.7*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.63093942682459947</v>
+        <v>0.7</v>
       </c>
       <c r="H44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.7,(0.7*'Nutritional status distribution'!H$14/(1-0.7*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.61924102043406515</v>
+        <v>0.7</v>
       </c>
       <c r="I44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.7,(0.7*'Nutritional status distribution'!I$14/(1-0.7*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.61924102043406515</v>
+        <v>0.7</v>
       </c>
       <c r="J44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.7,(0.7*'Nutritional status distribution'!J$14/(1-0.7*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.61924102043406515</v>
+        <v>0.7</v>
       </c>
       <c r="K44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.7,(0.7*'Nutritional status distribution'!K$14/(1-0.7*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.61924102043406515</v>
+        <v>0.7</v>
       </c>
       <c r="L44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.7,(0.7*'Nutritional status distribution'!L$14/(1-0.7*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.65425838423418226</v>
+        <v>0.7</v>
       </c>
       <c r="M44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.7,(0.7*'Nutritional status distribution'!M$14/(1-0.7*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.65425838423418226</v>
+        <v>0.7</v>
       </c>
       <c r="N44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.7,(0.7*'Nutritional status distribution'!N$14/(1-0.7*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.65425838423418226</v>
+        <v>0.7</v>
       </c>
       <c r="O44" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.7,(0.7*'Nutritional status distribution'!O$14/(1-0.7*'Nutritional status distribution'!O$14))
-/ ('Nutritional status distribution'!O$14/(1-'Nutritional status distribution'!O$14)))</f>
-        <v>0.65425838423418226</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="92" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -33904,47 +33825,47 @@
         <v>0.7</v>
       </c>
       <c r="E49" s="90">
-        <f t="shared" ref="E49:O49" si="11">IF(E3=1,1,E3*1.05)</f>
+        <f t="shared" ref="E49:O49" si="12">IF(E3=1,1,E3*1.05)</f>
         <v>1</v>
       </c>
       <c r="F49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O49" s="90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -33953,23 +33874,23 @@
         <v>175</v>
       </c>
       <c r="C50" s="90">
-        <f t="shared" ref="C50:G56" si="12">IF(C4=1,1,C4*1.05)</f>
+        <f t="shared" ref="C50:G56" si="13">IF(C4=1,1,C4*1.05)</f>
         <v>1</v>
       </c>
       <c r="D50" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E50" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F50" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G50" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H50" s="90">
@@ -33985,19 +33906,19 @@
         <v>0.95</v>
       </c>
       <c r="L50" s="90">
-        <f t="shared" ref="L50:O53" si="13">IF(L4=1,1,L4*1.05)</f>
+        <f t="shared" ref="L50:O53" si="14">IF(L4=1,1,L4*1.05)</f>
         <v>1</v>
       </c>
       <c r="M50" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N50" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O50" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -34006,23 +33927,23 @@
         <v>176</v>
       </c>
       <c r="C51" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D51" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E51" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F51" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G51" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H51" s="90">
@@ -34038,19 +33959,19 @@
         <v>0.95</v>
       </c>
       <c r="L51" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M51" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N51" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O51" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -34059,23 +33980,23 @@
         <v>177</v>
       </c>
       <c r="C52" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D52" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E52" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F52" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G52" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H52" s="90">
@@ -34091,19 +34012,19 @@
         <v>0.95</v>
       </c>
       <c r="L52" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M52" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N52" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O52" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -34112,23 +34033,23 @@
         <v>178</v>
       </c>
       <c r="C53" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D53" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E53" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F53" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G53" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H53" s="90">
@@ -34144,19 +34065,19 @@
         <v>0.95</v>
       </c>
       <c r="L53" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M53" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N53" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O53" s="90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -34165,39 +34086,39 @@
         <v>179</v>
       </c>
       <c r="C54" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D54" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E54" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F54" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G54" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H54" s="90">
-        <f t="shared" ref="H54:K57" si="14">IF(H8=1,1,H8*1.05)</f>
+        <f t="shared" ref="H54:K57" si="15">IF(H8=1,1,H8*1.05)</f>
         <v>1</v>
       </c>
       <c r="I54" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J54" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K54" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L54" s="90">
@@ -34218,39 +34139,39 @@
         <v>180</v>
       </c>
       <c r="C55" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D55" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E55" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F55" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G55" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H55" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I55" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J55" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K55" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L55" s="90">
@@ -34271,52 +34192,52 @@
         <v>181</v>
       </c>
       <c r="C56" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D56" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E56" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F56" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G56" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H56" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I56" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J56" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K56" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L56" s="90">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="M56" s="90">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="N56" s="90">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O56" s="90">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -34342,19 +34263,19 @@
         <v>1</v>
       </c>
       <c r="H57" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I57" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J57" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K57" s="90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L57" s="90">
@@ -34423,11 +34344,11 @@
         <v>188</v>
       </c>
       <c r="C59" s="90">
-        <f t="shared" ref="C59:D61" si="15">IF(C13=1,1,C13*1.05)</f>
+        <f t="shared" ref="C59:D61" si="16">IF(C13=1,1,C13*1.05)</f>
         <v>1</v>
       </c>
       <c r="D59" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E59" s="90">
@@ -34440,35 +34361,35 @@
         <v>0.77</v>
       </c>
       <c r="H59" s="90">
-        <f t="shared" ref="H59:O59" si="16">IF(H13=1,1,H13*1.05)</f>
+        <f t="shared" ref="H59:O59" si="17">IF(H13=1,1,H13*1.05)</f>
         <v>1</v>
       </c>
       <c r="I59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="N59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O59" s="90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -34477,39 +34398,39 @@
         <v>189</v>
       </c>
       <c r="C60" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="D60" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E60" s="90">
-        <f t="shared" ref="E60:K60" si="17">IF(E14=1,1,E14*1.05)</f>
+        <f t="shared" ref="E60:K60" si="18">IF(E14=1,1,E14*1.05)</f>
         <v>1</v>
       </c>
       <c r="F60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K60" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="L60" s="90">
@@ -34534,11 +34455,11 @@
         <v>192</v>
       </c>
       <c r="C61" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="D61" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E61" s="90">
@@ -34548,39 +34469,39 @@
         <v>0.44</v>
       </c>
       <c r="G61" s="90">
-        <f t="shared" ref="G61:O61" si="18">IF(G15=1,1,G15*1.05)</f>
+        <f t="shared" ref="G61:O61" si="19">IF(G15=1,1,G15*1.05)</f>
         <v>1</v>
       </c>
       <c r="H61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="J61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="O61" s="90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -34595,55 +34516,55 @@
         <v>172</v>
       </c>
       <c r="C64" s="90">
-        <f t="shared" ref="C64:O64" si="19">IF(C18=1,1,C18*1.05)</f>
+        <f t="shared" ref="C64:O64" si="20">IF(C18=1,1,C18*1.05)</f>
         <v>1</v>
       </c>
       <c r="D64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="G64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="H64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="N64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O64" s="90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -34652,67 +34573,45 @@
         <v>173</v>
       </c>
       <c r="C65" s="90">
-        <f t="shared" ref="C65:D67" si="20">IF(C19=1,1,C19*1.05)</f>
+        <f t="shared" ref="C65:D67" si="21">IF(C19=1,1,C19*1.05)</f>
         <v>1</v>
       </c>
       <c r="D65" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.97,(0.97*'Nutritional status distribution'!E$14/(1-0.97*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.95391049152541696</v>
+        <v>0.97</v>
       </c>
       <c r="F65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.97,(0.97*'Nutritional status distribution'!F$14/(1-0.97*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.95949765144606536</v>
+        <v>0.97</v>
       </c>
       <c r="G65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.97,(0.97*'Nutritional status distribution'!G$14/(1-0.97*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.95949765144606536</v>
+        <v>0.97</v>
       </c>
       <c r="H65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.97,(0.97*'Nutritional status distribution'!H$14/(1-0.97*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.95751249840671881</v>
+        <v>0.97</v>
       </c>
       <c r="I65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.97,(0.97*'Nutritional status distribution'!I$14/(1-0.97*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.95751249840671881</v>
+        <v>0.97</v>
       </c>
       <c r="J65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.97,(0.97*'Nutritional status distribution'!J$14/(1-0.97*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.95751249840671881</v>
+        <v>0.97</v>
       </c>
       <c r="K65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.97,(0.97*'Nutritional status distribution'!K$14/(1-0.97*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.95751249840671881</v>
+        <v>0.97</v>
       </c>
       <c r="L65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.97,(0.97*'Nutritional status distribution'!L$14/(1-0.97*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.96326545605936298</v>
+        <v>0.97</v>
       </c>
       <c r="M65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.97,(0.97*'Nutritional status distribution'!M$14/(1-0.97*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.96326545605936298</v>
+        <v>0.97</v>
       </c>
       <c r="N65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.97,(0.97*'Nutritional status distribution'!N$14/(1-0.97*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.96326545605936298</v>
+        <v>0.97</v>
       </c>
       <c r="O65" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.97,(0.97*'Nutritional status distribution'!O$14/(1-0.97*'Nutritional status distribution'!O$14))
-/ ('Nutritional status distribution'!O$14/(1-'Nutritional status distribution'!O$14)))</f>
-        <v>0.96326545605936298</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
@@ -34720,55 +34619,55 @@
         <v>174</v>
       </c>
       <c r="C66" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D66" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E66" s="90">
-        <f t="shared" ref="E66:O66" si="21">IF(E20=1,1,E20*1.05)</f>
+        <f t="shared" ref="E66:O66" si="22">IF(E20=1,1,E20*1.05)</f>
         <v>1</v>
       </c>
       <c r="F66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="H66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="L66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="N66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O66" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -34777,62 +34676,42 @@
         <v>182</v>
       </c>
       <c r="C67" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D67" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$14),0.92,(0.92*'Nutritional status distribution'!E$14/(1-0.92*'Nutritional status distribution'!E$14))
-/ ('Nutritional status distribution'!E$14/(1-'Nutritional status distribution'!E$14)))</f>
-        <v>0.88040098323244087</v>
+        <v>0.92</v>
       </c>
       <c r="F67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$14),0.92,(0.92*'Nutritional status distribution'!F$14/(1-0.92*'Nutritional status distribution'!F$14))
-/ ('Nutritional status distribution'!F$14/(1-'Nutritional status distribution'!F$14)))</f>
-        <v>0.89390819275379751</v>
+        <v>0.92</v>
       </c>
       <c r="G67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$14),0.92,(0.92*'Nutritional status distribution'!G$14/(1-0.92*'Nutritional status distribution'!G$14))
-/ ('Nutritional status distribution'!G$14/(1-'Nutritional status distribution'!G$14)))</f>
-        <v>0.89390819275379751</v>
+        <v>0.92</v>
       </c>
       <c r="H67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!H$14),0.92,(0.92*'Nutritional status distribution'!H$14/(1-0.92*'Nutritional status distribution'!H$14))
-/ ('Nutritional status distribution'!H$14/(1-'Nutritional status distribution'!H$14)))</f>
-        <v>0.88907991791913932</v>
+        <v>0.92</v>
       </c>
       <c r="I67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!I$14),0.92,(0.92*'Nutritional status distribution'!I$14/(1-0.92*'Nutritional status distribution'!I$14))
-/ ('Nutritional status distribution'!I$14/(1-'Nutritional status distribution'!I$14)))</f>
-        <v>0.88907991791913932</v>
+        <v>0.92</v>
       </c>
       <c r="J67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!J$14),0.92,(0.92*'Nutritional status distribution'!J$14/(1-0.92*'Nutritional status distribution'!J$14))
-/ ('Nutritional status distribution'!J$14/(1-'Nutritional status distribution'!J$14)))</f>
-        <v>0.88907991791913932</v>
+        <v>0.92</v>
       </c>
       <c r="K67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!K$14),0.92,(0.92*'Nutritional status distribution'!K$14/(1-0.92*'Nutritional status distribution'!K$14))
-/ ('Nutritional status distribution'!K$14/(1-'Nutritional status distribution'!K$14)))</f>
-        <v>0.88907991791913932</v>
+        <v>0.92</v>
       </c>
       <c r="L67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!L$14),0.92,(0.92*'Nutritional status distribution'!L$14/(1-0.92*'Nutritional status distribution'!L$14))
-/ ('Nutritional status distribution'!L$14/(1-'Nutritional status distribution'!L$14)))</f>
-        <v>0.9031617682661115</v>
+        <v>0.92</v>
       </c>
       <c r="M67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!M$14),0.92,(0.92*'Nutritional status distribution'!M$14/(1-0.92*'Nutritional status distribution'!M$14))
-/ ('Nutritional status distribution'!M$14/(1-'Nutritional status distribution'!M$14)))</f>
-        <v>0.9031617682661115</v>
+        <v>0.92</v>
       </c>
       <c r="N67" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!N$14),0.92,(0.92*'Nutritional status distribution'!N$14/(1-0.92*'Nutritional status distribution'!N$14))
-/ ('Nutritional status distribution'!N$14/(1-'Nutritional status distribution'!N$14)))</f>
-        <v>0.9031617682661115</v>
+        <v>0.92</v>
       </c>
       <c r="O67" s="90">
         <f>IF(ISBLANK('Nutritional status distribution'!O$14),0.92,(0.92*'Nutritional status distribution'!O$14/(1-0.92*'Nutritional status distribution'!O$14))
@@ -34856,7 +34735,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -34892,7 +34771,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>157</v>
       </c>
@@ -34900,24 +34779,20 @@
         <v>1</v>
       </c>
       <c r="D3" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!D$11/(1-(1/1.33)*'Nutritional status distribution'!D$11))
-/ ('Nutritional status distribution'!D$11/(1-'Nutritional status distribution'!D$11)))</f>
-        <v>0.75046959829518867</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="E3" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!E$11/(1-(1/1.33)*'Nutritional status distribution'!E$11))
-/ ('Nutritional status distribution'!E$11/(1-'Nutritional status distribution'!E$11)))</f>
-        <v>0.75057875812668917</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="F3" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!F$11/(1-(1/1.33)*'Nutritional status distribution'!F$11))
-/ ('Nutritional status distribution'!F$11/(1-'Nutritional status distribution'!F$11)))</f>
-        <v>0.75114255103927474</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="G3" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!G$11/(1-(1/1.33)*'Nutritional status distribution'!G$11))
-/ ('Nutritional status distribution'!G$11/(1-'Nutritional status distribution'!G$11)))</f>
-        <v>0.75153100067543199</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -34931,7 +34806,7 @@
       <c r="F4" s="83"/>
       <c r="G4" s="83"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>158</v>
       </c>
@@ -34939,24 +34814,20 @@
         <v>1</v>
       </c>
       <c r="D5" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!D$10/(1-(1/1.33)*'Nutritional status distribution'!D$10))
-/ ('Nutritional status distribution'!D$10/(1-'Nutritional status distribution'!D$10)))</f>
-        <v>0.74679269286434591</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="E5" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!E$10/(1-(1/1.33)*'Nutritional status distribution'!E$10))
-/ ('Nutritional status distribution'!E$10/(1-'Nutritional status distribution'!E$10)))</f>
-        <v>0.75134191490939539</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="F5" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!F$10/(1-(1/1.33)*'Nutritional status distribution'!F$10))
-/ ('Nutritional status distribution'!F$10/(1-'Nutritional status distribution'!F$10)))</f>
-        <v>0.75139684837497922</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
       <c r="G5" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!G$10/(1-(1/1.33)*'Nutritional status distribution'!G$10))
-/ ('Nutritional status distribution'!G$10/(1-'Nutritional status distribution'!G$10)))</f>
-        <v>0.75116368483757567</v>
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="92" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -34988,7 +34859,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>157</v>
       </c>
@@ -34996,24 +34867,20 @@
         <v>1</v>
       </c>
       <c r="D10" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!D$11/(1-(1/1.54)*'Nutritional status distribution'!D$11))
-/ ('Nutritional status distribution'!D$11/(1-'Nutritional status distribution'!D$11)))</f>
-        <v>0.64763093850505959</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="E10" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!E$11/(1-(1/1.54)*'Nutritional status distribution'!E$11))
-/ ('Nutritional status distribution'!E$11/(1-'Nutritional status distribution'!E$11)))</f>
-        <v>0.64776397098276528</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="F10" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!F$11/(1-(1/1.54)*'Nutritional status distribution'!F$11))
-/ ('Nutritional status distribution'!F$11/(1-'Nutritional status distribution'!F$11)))</f>
-        <v>0.64845131627524144</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="G10" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!G$11/(1-(1/1.54)*'Nutritional status distribution'!G$11))
-/ ('Nutritional status distribution'!G$11/(1-'Nutritional status distribution'!G$11)))</f>
-        <v>0.64892514048850991</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -35027,7 +34894,7 @@
       <c r="F11" s="83"/>
       <c r="G11" s="83"/>
     </row>
-    <row r="12" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>158</v>
       </c>
@@ -35035,24 +34902,20 @@
         <v>1</v>
       </c>
       <c r="D12" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!D$10/(1-(1/1.54)*'Nutritional status distribution'!D$10))
-/ ('Nutritional status distribution'!D$10/(1-'Nutritional status distribution'!D$10)))</f>
-        <v>0.64315921235997309</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="E12" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!E$10/(1-(1/1.54)*'Nutritional status distribution'!E$10))
-/ ('Nutritional status distribution'!E$10/(1-'Nutritional status distribution'!E$10)))</f>
-        <v>0.64869447164591043</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="F12" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!F$10/(1-(1/1.54)*'Nutritional status distribution'!F$10))
-/ ('Nutritional status distribution'!F$10/(1-'Nutritional status distribution'!F$10)))</f>
-        <v>0.64876148094648112</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="G12" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!G$10/(1-(1/1.54)*'Nutritional status distribution'!G$10))
-/ ('Nutritional status distribution'!G$10/(1-'Nutritional status distribution'!G$10)))</f>
-        <v>0.64847708971851592</v>
+        <f>1/1.54</f>
+        <v>0.64935064935064934</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="92" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -35084,7 +34947,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>157</v>
       </c>
@@ -35092,24 +34955,20 @@
         <v>1</v>
       </c>
       <c r="D17" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!D$11/(1-(1/1.16)*'Nutritional status distribution'!D$11))
-/ ('Nutritional status distribution'!D$11/(1-'Nutritional status distribution'!D$11)))</f>
-        <v>0.86116945671974177</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="E17" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!E$11/(1-(1/1.16)*'Nutritional status distribution'!E$11))
-/ ('Nutritional status distribution'!E$11/(1-'Nutritional status distribution'!E$11)))</f>
-        <v>0.86123914374163024</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="F17" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!F$11/(1-(1/1.16)*'Nutritional status distribution'!F$11))
-/ ('Nutritional status distribution'!F$11/(1-'Nutritional status distribution'!F$11)))</f>
-        <v>0.86159892283950212</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="G17" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!G$11/(1-(1/1.16)*'Nutritional status distribution'!G$11))
-/ ('Nutritional status distribution'!G$11/(1-'Nutritional status distribution'!G$11)))</f>
-        <v>0.86184666883976857</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -35123,7 +34982,7 @@
       <c r="F18" s="83"/>
       <c r="G18" s="83"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>158</v>
       </c>
@@ -35131,24 +34990,20 @@
         <v>1</v>
       </c>
       <c r="D19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!D$10/(1-(1/1.16)*'Nutritional status distribution'!D$10))
-/ ('Nutritional status distribution'!D$10/(1-'Nutritional status distribution'!D$10)))</f>
-        <v>0.85881687603247447</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="E19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!E$10/(1-(1/1.16)*'Nutritional status distribution'!E$10))
-/ ('Nutritional status distribution'!E$10/(1-'Nutritional status distribution'!E$10)))</f>
-        <v>0.86172608763715441</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="F19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!F$10/(1-(1/1.16)*'Nutritional status distribution'!F$10))
-/ ('Nutritional status distribution'!F$10/(1-'Nutritional status distribution'!F$10)))</f>
-        <v>0.86176112183614428</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
       <c r="G19" s="90">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!G$10/(1-(1/1.16)*'Nutritional status distribution'!G$10))
-/ ('Nutritional status distribution'!G$10/(1-'Nutritional status distribution'!G$10)))</f>
-        <v>0.86161240451106291</v>
+        <f>1/1.16</f>
+        <v>0.86206896551724144</v>
       </c>
     </row>
   </sheetData>
@@ -35166,8 +35021,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -35210,7 +35065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>193</v>
       </c>
@@ -35236,7 +35091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>339</v>
       </c>
@@ -35256,7 +35111,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>340</v>
       </c>
@@ -35276,7 +35131,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>191</v>
       </c>
@@ -35302,7 +35157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>340</v>
       </c>
@@ -35322,7 +35177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>204</v>
       </c>
@@ -35345,7 +35200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>340</v>
       </c>
@@ -35365,7 +35220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>184</v>
       </c>
@@ -35391,7 +35246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>340</v>
       </c>
@@ -35411,7 +35266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>204</v>
       </c>
@@ -35434,7 +35289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>340</v>
       </c>
@@ -35454,7 +35309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>192</v>
       </c>
@@ -35480,7 +35335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>340</v>
       </c>
@@ -35500,7 +35355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>204</v>
       </c>
@@ -35523,7 +35378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>340</v>
       </c>
@@ -35543,7 +35398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>169</v>
       </c>
@@ -35569,7 +35424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>340</v>
       </c>
@@ -35589,7 +35444,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>204</v>
       </c>
@@ -35612,7 +35467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
         <v>340</v>
       </c>
@@ -35632,7 +35487,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>174</v>
       </c>
@@ -35658,7 +35513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>339</v>
       </c>
@@ -35678,7 +35533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>172</v>
       </c>
@@ -35704,7 +35559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>339</v>
       </c>
@@ -35724,7 +35579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>173</v>
       </c>
@@ -35750,7 +35605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
         <v>339</v>
       </c>
@@ -35770,7 +35625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>197</v>
       </c>
@@ -35796,7 +35651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
         <v>339</v>
       </c>
@@ -35816,7 +35671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>340</v>
       </c>
@@ -35836,7 +35691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>198</v>
       </c>
@@ -35862,7 +35717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
         <v>339</v>
       </c>
@@ -35882,7 +35737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
         <v>340</v>
       </c>
@@ -35902,7 +35757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>196</v>
       </c>
@@ -35928,7 +35783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
         <v>339</v>
       </c>
@@ -35948,7 +35803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>340</v>
       </c>
@@ -35968,7 +35823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>195</v>
       </c>
@@ -35994,7 +35849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
         <v>339</v>
       </c>
@@ -36014,7 +35869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
         <v>340</v>
       </c>
@@ -36034,7 +35889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>194</v>
       </c>
@@ -36060,7 +35915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
         <v>339</v>
       </c>
@@ -36080,7 +35935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
         <v>340</v>
       </c>
@@ -36100,7 +35955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>200</v>
       </c>
@@ -36126,7 +35981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>339</v>
       </c>
@@ -36146,7 +36001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
         <v>340</v>
       </c>
@@ -36166,7 +36021,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>82</v>
       </c>
@@ -36189,7 +36044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
         <v>339</v>
       </c>
@@ -36209,7 +36064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
         <v>340</v>
       </c>
@@ -36229,7 +36084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>190</v>
       </c>
@@ -36255,7 +36110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
         <v>339</v>
       </c>
@@ -36275,7 +36130,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>199</v>
       </c>
@@ -36301,7 +36156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
         <v>339</v>
       </c>
@@ -36321,7 +36176,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>183</v>
       </c>
@@ -36347,12 +36202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
         <v>339</v>
       </c>
       <c r="D53" s="90">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="E53" s="90">
         <v>0</v>
@@ -36400,7 +36255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>193</v>
       </c>
@@ -36431,7 +36286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="5" t="s">
         <v>339</v>
       </c>
@@ -36453,7 +36308,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="5" t="s">
         <v>340</v>
       </c>
@@ -36475,7 +36330,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>191</v>
       </c>
@@ -36501,7 +36356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="5" t="s">
         <v>340</v>
       </c>
@@ -36521,7 +36376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>204</v>
       </c>
@@ -36544,7 +36399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="5" t="s">
         <v>340</v>
       </c>
@@ -36564,7 +36419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>184</v>
       </c>
@@ -36590,7 +36445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="5" t="s">
         <v>340</v>
       </c>
@@ -36610,7 +36465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>204</v>
       </c>
@@ -36633,7 +36488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
         <v>340</v>
       </c>
@@ -36653,7 +36508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>192</v>
       </c>
@@ -36679,7 +36534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="5" t="s">
         <v>340</v>
       </c>
@@ -36702,7 +36557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>204</v>
       </c>
@@ -36730,7 +36585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="5" t="s">
         <v>340</v>
       </c>
@@ -36753,7 +36608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>169</v>
       </c>
@@ -36784,7 +36639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="5" t="s">
         <v>340</v>
       </c>
@@ -37608,7 +37463,7 @@
         <v>339</v>
       </c>
       <c r="D108" s="90">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E108" s="90">
         <v>0</v>
@@ -38869,7 +38724,7 @@
         <v>339</v>
       </c>
       <c r="D163" s="90">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
       <c r="E163" s="90">
         <v>0</v>
@@ -38900,7 +38755,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -38935,7 +38790,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
@@ -38959,7 +38814,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
         <v>339</v>
       </c>
@@ -38977,7 +38832,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
@@ -39001,7 +38856,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
         <v>339</v>
       </c>
@@ -39019,7 +38874,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>186</v>
       </c>
@@ -39043,7 +38898,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>339</v>
       </c>
@@ -39087,7 +38942,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>168</v>
       </c>
@@ -39114,7 +38969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>339</v>
       </c>
@@ -39131,7 +38986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>187</v>
       </c>
@@ -39158,7 +39013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>339</v>
       </c>
@@ -39179,7 +39034,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>186</v>
       </c>
@@ -39206,7 +39061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
         <v>339</v>
       </c>
@@ -39253,7 +39108,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
@@ -39280,7 +39135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
         <v>339</v>
       </c>
@@ -39297,7 +39152,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>187</v>
       </c>
@@ -39324,7 +39179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="8" t="s">
         <v>339</v>
       </c>
@@ -39345,7 +39200,7 @@
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>186</v>
       </c>
@@ -39372,7 +39227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="8" t="s">
         <v>339</v>
       </c>
@@ -39421,7 +39276,7 @@
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
-        <v>Percentage of deaths in baseline year (2021) attributable to cause</v>
+        <v>Percentage of deaths in baseline year (2024) attributable to cause</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -39449,7 +39304,7 @@
         <v>68</v>
       </c>
       <c r="C3" s="55">
-        <v>1.6385194441076219E-3</v>
+        <v>1.6324242095127591E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39457,7 +39312,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="101">
-        <v>0.1118869756131808</v>
+        <v>5.2081731825269262E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39465,7 +39320,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="101">
-        <v>5.2863040319249453E-2</v>
+        <v>2.9863691848466541E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39473,7 +39328,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="101">
-        <v>0.22337976979282501</v>
+        <v>0.1698753019698051</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39481,7 +39336,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="101">
-        <v>0.3004479003120496</v>
+        <v>0.43394349674221139</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39489,7 +39344,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="101">
-        <v>2.0953841413432579E-3</v>
+        <v>2.0875893861734139E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39497,7 +39352,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="101">
-        <v>0.22485833930304</v>
+        <v>0.22483110229985301</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39505,7 +39360,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="101">
-        <v>8.2830071074203995E-2</v>
+        <v>8.5684661718708532E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39514,7 +39369,7 @@
       </c>
       <c r="C11" s="48">
         <f>SUM(C3:C10)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -39554,16 +39409,16 @@
         <v>81</v>
       </c>
       <c r="C14" s="55">
-        <v>0.117126132164545</v>
+        <v>6.6361337214707369E-2</v>
       </c>
       <c r="D14" s="55">
-        <v>0.117126132164545</v>
+        <v>6.6361337214707369E-2</v>
       </c>
       <c r="E14" s="55">
-        <v>0.117126132164545</v>
+        <v>6.6361337214707369E-2</v>
       </c>
       <c r="F14" s="55">
-        <v>0.117126132164545</v>
+        <v>6.6361337214707369E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39571,16 +39426,16 @@
         <v>82</v>
       </c>
       <c r="C15" s="101">
-        <v>0.23830015273909191</v>
+        <v>0.21836907904839739</v>
       </c>
       <c r="D15" s="101">
-        <v>0.23830015273909191</v>
+        <v>0.21836907904839739</v>
       </c>
       <c r="E15" s="101">
-        <v>0.23830015273909191</v>
+        <v>0.21836907904839739</v>
       </c>
       <c r="F15" s="101">
-        <v>0.23830015273909191</v>
+        <v>0.21836907904839739</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39588,16 +39443,16 @@
         <v>83</v>
       </c>
       <c r="C16" s="101">
-        <v>2.0149774729921199E-2</v>
+        <v>1.308218753544084E-2</v>
       </c>
       <c r="D16" s="101">
-        <v>2.0149774729921199E-2</v>
+        <v>1.308218753544084E-2</v>
       </c>
       <c r="E16" s="101">
-        <v>2.0149774729921199E-2</v>
+        <v>1.308218753544084E-2</v>
       </c>
       <c r="F16" s="101">
-        <v>2.0149774729921199E-2</v>
+        <v>1.308218753544084E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39639,16 +39494,16 @@
         <v>86</v>
       </c>
       <c r="C19" s="101">
-        <v>4.3258216961886246E-3</v>
+        <v>2.0020932136408709E-2</v>
       </c>
       <c r="D19" s="101">
-        <v>4.3258216961886246E-3</v>
+        <v>2.0020932136408709E-2</v>
       </c>
       <c r="E19" s="101">
-        <v>4.3258216961886246E-3</v>
+        <v>2.0020932136408709E-2</v>
       </c>
       <c r="F19" s="101">
-        <v>4.3258216961886246E-3</v>
+        <v>2.0020932136408709E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39656,16 +39511,16 @@
         <v>87</v>
       </c>
       <c r="C20" s="101">
-        <v>1.4769424718398599E-3</v>
+        <v>2.5184264166931238E-3</v>
       </c>
       <c r="D20" s="101">
-        <v>1.4769424718398599E-3</v>
+        <v>2.5184264166931238E-3</v>
       </c>
       <c r="E20" s="101">
-        <v>1.4769424718398599E-3</v>
+        <v>2.5184264166931238E-3</v>
       </c>
       <c r="F20" s="101">
-        <v>1.4769424718398599E-3</v>
+        <v>2.5184264166931238E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39673,16 +39528,16 @@
         <v>88</v>
       </c>
       <c r="C21" s="101">
-        <v>0.1487564882759449</v>
+        <v>0.53474700150377652</v>
       </c>
       <c r="D21" s="101">
-        <v>0.1487564882759449</v>
+        <v>0.53474700150377652</v>
       </c>
       <c r="E21" s="101">
-        <v>0.1487564882759449</v>
+        <v>0.53474700150377652</v>
       </c>
       <c r="F21" s="101">
-        <v>0.1487564882759449</v>
+        <v>0.53474700150377652</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39690,16 +39545,16 @@
         <v>89</v>
       </c>
       <c r="C22" s="101">
-        <v>0.46986468792246849</v>
+        <v>0.144901036144576</v>
       </c>
       <c r="D22" s="101">
-        <v>0.46986468792246849</v>
+        <v>0.144901036144576</v>
       </c>
       <c r="E22" s="101">
-        <v>0.46986468792246849</v>
+        <v>0.144901036144576</v>
       </c>
       <c r="F22" s="101">
-        <v>0.46986468792246849</v>
+        <v>0.144901036144576</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39859,7 +39714,7 @@
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
-        <v>Percentage of population in each category in baseline year (2021)</v>
+        <v>Percentage of population in each category in baseline year (2024)</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>100</v>
@@ -39889,23 +39744,23 @@
       </c>
       <c r="C2" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.82677453145578772</v>
+        <v>0.82677451285693104</v>
       </c>
       <c r="D2" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.82677453145578772</v>
+        <v>0.82677451285693104</v>
       </c>
       <c r="E2" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.73580172304648594</v>
+        <v>0.73580179304021121</v>
       </c>
       <c r="F2" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.59718900257291652</v>
+        <v>0.59718903209489982</v>
       </c>
       <c r="G2" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.59272423434252342</v>
+        <v>0.59272414470640378</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39914,23 +39769,23 @@
       </c>
       <c r="C3" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
-        <v>0.14712637294421232</v>
+        <v>0.14712638714306897</v>
       </c>
       <c r="D3" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
-        <v>0.14712637294421232</v>
+        <v>0.14712638714306897</v>
       </c>
       <c r="E3" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
-        <v>0.21269565435351398</v>
+        <v>0.21269560695978879</v>
       </c>
       <c r="F3" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
-        <v>0.29644308342708353</v>
+        <v>0.29644306790510022</v>
       </c>
       <c r="G3" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
-        <v>0.29877830865747657</v>
+        <v>0.2987783552935962</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39938,19 +39793,19 @@
         <v>104</v>
       </c>
       <c r="C4" s="45">
-        <v>1.7188864000000002E-2</v>
+        <v>1.71889E-2</v>
       </c>
       <c r="D4" s="53">
-        <v>1.7188864000000002E-2</v>
+        <v>1.71889E-2</v>
       </c>
       <c r="E4" s="53">
-        <v>4.3822517000000012E-2</v>
+        <v>4.38225E-2</v>
       </c>
       <c r="F4" s="53">
-        <v>6.8661426999999997E-2</v>
+        <v>6.8661399999999997E-2</v>
       </c>
       <c r="G4" s="53">
-        <v>8.4373778999999996E-2</v>
+        <v>8.4373799999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39958,19 +39813,19 @@
         <v>105</v>
       </c>
       <c r="C5" s="45">
-        <v>8.9102316000000004E-3</v>
+        <v>8.9102000000000001E-3</v>
       </c>
       <c r="D5" s="53">
-        <v>8.9102316000000004E-3</v>
+        <v>8.9102000000000001E-3</v>
       </c>
       <c r="E5" s="53">
-        <v>7.6801055999999998E-3</v>
+        <v>7.6800999999999996E-3</v>
       </c>
       <c r="F5" s="53">
-        <v>3.7706486999999997E-2</v>
+        <v>3.7706499999999997E-2</v>
       </c>
       <c r="G5" s="53">
-        <v>2.4123677999999999E-2</v>
+        <v>2.4123700000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39998,23 +39853,23 @@
       </c>
       <c r="C8" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.79442990317533624</v>
+        <v>0.7944296436409517</v>
       </c>
       <c r="D8" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.79442990317533624</v>
+        <v>0.7944296436409517</v>
       </c>
       <c r="E8" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.90880010060176264</v>
+        <v>0.90879959268577404</v>
       </c>
       <c r="F8" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.93089903469927304</v>
+        <v>0.9308992772175364</v>
       </c>
       <c r="G8" s="52">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.93706482118372392</v>
+        <v>0.93706495298543968</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40023,23 +39878,23 @@
       </c>
       <c r="C9" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
-        <v>0.17133416602466375</v>
+        <v>0.17133435635904826</v>
       </c>
       <c r="D9" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
-        <v>0.17133416602466375</v>
+        <v>0.17133435635904826</v>
       </c>
       <c r="E9" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
-        <v>8.1386380598237343E-2</v>
+        <v>8.1386807314225956E-2</v>
       </c>
       <c r="F9" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
-        <v>6.2578131900726988E-2</v>
+        <v>6.2577922782463602E-2</v>
       </c>
       <c r="G9" s="52">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
-        <v>5.7241661516276111E-2</v>
+        <v>5.7241547014560343E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40047,19 +39902,19 @@
         <v>109</v>
       </c>
       <c r="C10" s="45">
-        <v>2.6720075999999999E-2</v>
+        <v>2.67201E-2</v>
       </c>
       <c r="D10" s="53">
-        <v>2.6720075999999999E-2</v>
+        <v>2.67201E-2</v>
       </c>
       <c r="E10" s="53">
-        <v>2.8764525E-3</v>
+        <v>2.8765000000000002E-3</v>
       </c>
       <c r="F10" s="53">
         <v>2.5831999999999999E-3</v>
       </c>
       <c r="G10" s="53">
-        <v>3.8270104000000002E-3</v>
+        <v>3.8270000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40067,19 +39922,19 @@
         <v>110</v>
       </c>
       <c r="C11" s="45">
-        <v>7.5158548E-3</v>
+        <v>7.5158999999999998E-3</v>
       </c>
       <c r="D11" s="53">
-        <v>7.5158548E-3</v>
+        <v>7.5158999999999998E-3</v>
       </c>
       <c r="E11" s="53">
-        <v>6.9370663000000001E-3</v>
+        <v>6.9371000000000007E-3</v>
       </c>
       <c r="F11" s="53">
-        <v>3.9396333999999998E-3</v>
+        <v>3.9395999999999997E-3</v>
       </c>
       <c r="G11" s="53">
-        <v>1.8665069000000001E-3</v>
+        <v>1.8665000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40271,7 +40126,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G4"/>
+      <selection activeCell="E2" sqref="E2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -40283,7 +40138,7 @@
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
-        <v>Percentage of children in each category in baseline year (2021)</v>
+        <v>Percentage of children in each category in baseline year (2024)</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>100</v>
@@ -40317,59 +40172,73 @@
       <c r="D2" s="53">
         <v>0.47777259999999999</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="E2" s="53">
+        <v>0</v>
+      </c>
+      <c r="F2" s="53">
+        <v>0</v>
+      </c>
+      <c r="G2" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C3" s="53">
-        <v>3.7555470000000001E-2</v>
+        <v>3.7555499999999999E-2</v>
       </c>
       <c r="D3" s="53">
         <v>0.12155680000000001</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="E3" s="53">
+        <v>0</v>
+      </c>
+      <c r="F3" s="53">
+        <v>0</v>
+      </c>
+      <c r="G3" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="53">
-        <v>0.22008630000000001</v>
+        <v>0.22008620000000001</v>
       </c>
       <c r="D4" s="53">
         <v>0.36383629999999989</v>
       </c>
       <c r="E4" s="53">
-        <v>0.90213686227798506</v>
+        <v>0.89573269999999994</v>
       </c>
       <c r="F4" s="53">
-        <v>0.66075050830841109</v>
-      </c>
-      <c r="G4" s="53"/>
+        <v>0.63862679999999994</v>
+      </c>
+      <c r="G4" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="52">
-        <v>4.5253249999999988E-2</v>
+        <v>4.5253300000000003E-2</v>
       </c>
       <c r="D5" s="52">
-        <v>3.6834279999999997E-2</v>
+        <v>3.68343E-2</v>
       </c>
       <c r="E5" s="52">
         <f>1-SUM(E2:E4)</f>
-        <v>9.7863137722014937E-2</v>
+        <v>0.10426730000000006</v>
       </c>
       <c r="F5" s="52">
         <f>1-SUM(F2:F4)</f>
-        <v>0.33924949169158891</v>
+        <v>0.36137320000000006</v>
       </c>
       <c r="G5" s="52">
         <f>1-SUM(G2:G4)</f>
@@ -40435,7 +40304,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -40452,10 +40321,10 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -40472,10 +40341,10 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -40492,7 +40361,7 @@
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>90</v>
       </c>
@@ -40506,7 +40375,7 @@
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>129</v>
       </c>
@@ -40520,7 +40389,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -40537,7 +40406,7 @@
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>132</v>
       </c>
@@ -40551,7 +40420,7 @@
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
@@ -40568,7 +40437,7 @@
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>134</v>
       </c>
@@ -40613,7 +40482,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>137</v>
       </c>
@@ -40621,7 +40490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>138</v>
       </c>
@@ -40629,7 +40498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>139</v>
       </c>
@@ -40637,7 +40506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>140</v>
       </c>
@@ -40645,7 +40514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>141</v>
       </c>
@@ -40653,7 +40522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>142</v>
       </c>
@@ -40719,7 +40588,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="32" t="s">
         <v>67</v>
       </c>
@@ -40732,7 +40601,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>77</v>
       </c>
@@ -40745,7 +40614,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>78</v>
       </c>
@@ -40756,7 +40625,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>79</v>
       </c>
@@ -40767,7 +40636,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>150</v>
       </c>
@@ -40789,7 +40658,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>67</v>
       </c>
@@ -40800,7 +40669,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>77</v>
       </c>
@@ -40811,7 +40680,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
         <v>78</v>
       </c>
@@ -40824,7 +40693,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>79</v>
       </c>
@@ -40837,7 +40706,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>150</v>
       </c>
@@ -40861,7 +40730,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>67</v>
       </c>
@@ -40874,7 +40743,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
         <v>77</v>
       </c>
@@ -40887,7 +40756,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>78</v>
       </c>
@@ -40900,7 +40769,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
         <v>79</v>
       </c>
@@ -40913,7 +40782,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
         <v>150</v>
       </c>
@@ -40989,4 +40858,177 @@
   <sheetProtection algorithmName="SHA-512" hashValue="tS5A5il384gB8zsJjwidwZIpdVsJo/ah59cRAmnHpig36ZssdSIeiIXxiNqdW+7yhHG743nXUgYflxFLjdX6Kg==" saltValue="H9BMcvjdiLgSEjFGZvTrQw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100856A3DB4B0A5FF4A85E5854FA9B1BD84" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="107b52809c0cc4b5077f1ac81d3c69cc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5de2aea6-bdc3-4e5f-b0ae-84d85b5764e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="82b7e1b740270cfb0676be859a78f3d0" ns2:_="">
+    <xsd:import namespace="5de2aea6-bdc3-4e5f-b0ae-84d85b5764e4"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5de2aea6-bdc3-4e5f-b0ae-84d85b5764e4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34556BB9-FE7B-47CD-AB39-083DC8111E4C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589F1BD9-CCC7-40F9-A16D-43C9D06D3CD8}"/>
 </file>